--- a/The Rurik Empire/docs/regions.xlsx
+++ b/The Rurik Empire/docs/regions.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\bazGames\The Rurik Empire\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9783F6-2FEE-456D-8A74-60D761FCE97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,25 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>id_empire</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name_region</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,7 +76,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +353,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/The Rurik Empire/docs/regions.xlsx
+++ b/The Rurik Empire/docs/regions.xlsx
@@ -8,15 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\bazGames\The Rurik Empire\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D80B95-537C-49F5-BE3F-5485C2088783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE8E961-278C-47BD-82EE-513DC32CD61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1718702201" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
       <pm:docPrefs xmlns:pm="smNativeData" id="1718702201" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
@@ -28,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="181">
   <si>
     <t>id</t>
   </si>
@@ -277,6 +286,300 @@
   </si>
   <si>
     <t>Черкассы</t>
+  </si>
+  <si>
+    <t>Хазарский каганат</t>
+  </si>
+  <si>
+    <t>Итиль</t>
+  </si>
+  <si>
+    <t>Фанагория</t>
+  </si>
+  <si>
+    <t>Саркел</t>
+  </si>
+  <si>
+    <t>Керчь</t>
+  </si>
+  <si>
+    <t>Самандар</t>
+  </si>
+  <si>
+    <t>Таматарха</t>
+  </si>
+  <si>
+    <t>Боспор</t>
+  </si>
+  <si>
+    <t>Волжская булгария</t>
+  </si>
+  <si>
+    <t>Болгар</t>
+  </si>
+  <si>
+    <t>Биляр</t>
+  </si>
+  <si>
+    <t>Сувар</t>
+  </si>
+  <si>
+    <t>Отель</t>
+  </si>
+  <si>
+    <t>Муромский городок</t>
+  </si>
+  <si>
+    <t>Первое Болгарское Царство</t>
+  </si>
+  <si>
+    <t>Велики-Преслав</t>
+  </si>
+  <si>
+    <t>Чернград</t>
+  </si>
+  <si>
+    <t>Варна</t>
+  </si>
+  <si>
+    <t>Галац</t>
+  </si>
+  <si>
+    <t>Плиска</t>
+  </si>
+  <si>
+    <t>Пловдив</t>
+  </si>
+  <si>
+    <t>Средец</t>
+  </si>
+  <si>
+    <t>Охрид</t>
+  </si>
+  <si>
+    <t>Белград</t>
+  </si>
+  <si>
+    <t>Кастория</t>
+  </si>
+  <si>
+    <t>Ниш</t>
+  </si>
+  <si>
+    <t>Великая Моравия</t>
+  </si>
+  <si>
+    <t>Велеград</t>
+  </si>
+  <si>
+    <t>Брно</t>
+  </si>
+  <si>
+    <t>Краков</t>
+  </si>
+  <si>
+    <t>Вроцлав</t>
+  </si>
+  <si>
+    <t>Блатно</t>
+  </si>
+  <si>
+    <t>Виена</t>
+  </si>
+  <si>
+    <t>Плзень</t>
+  </si>
+  <si>
+    <t>Прага</t>
+  </si>
+  <si>
+    <t>Микульчице</t>
+  </si>
+  <si>
+    <t>Нитра</t>
+  </si>
+  <si>
+    <t>Мишны</t>
+  </si>
+  <si>
+    <t>Рашка</t>
+  </si>
+  <si>
+    <t>Стари-Рас</t>
+  </si>
+  <si>
+    <t>Студеница</t>
+  </si>
+  <si>
+    <t>Звечан</t>
+  </si>
+  <si>
+    <t>Скадар</t>
+  </si>
+  <si>
+    <t>Призрен</t>
+  </si>
+  <si>
+    <t>Котор</t>
+  </si>
+  <si>
+    <t>Вранье</t>
+  </si>
+  <si>
+    <t>Дубровник</t>
+  </si>
+  <si>
+    <t>Брестница</t>
+  </si>
+  <si>
+    <t>Островица</t>
+  </si>
+  <si>
+    <t>Королевство Хорватия</t>
+  </si>
+  <si>
+    <t>Сисак</t>
+  </si>
+  <si>
+    <t>Копривнице</t>
+  </si>
+  <si>
+    <t>Осиек</t>
+  </si>
+  <si>
+    <t>Задар</t>
+  </si>
+  <si>
+    <t>Шибеник</t>
+  </si>
+  <si>
+    <t>Карловац</t>
+  </si>
+  <si>
+    <t>Вуковар</t>
+  </si>
+  <si>
+    <t>Сплит</t>
+  </si>
+  <si>
+    <t>Византийская империя</t>
+  </si>
+  <si>
+    <t>Константинополь</t>
+  </si>
+  <si>
+    <t>Никея</t>
+  </si>
+  <si>
+    <t>Трабзон</t>
+  </si>
+  <si>
+    <t>Салоники</t>
+  </si>
+  <si>
+    <t>Приштина</t>
+  </si>
+  <si>
+    <t>Скопье</t>
+  </si>
+  <si>
+    <t>Ларисса</t>
+  </si>
+  <si>
+    <t>Никополь</t>
+  </si>
+  <si>
+    <t>Херсонес</t>
+  </si>
+  <si>
+    <t>Тырново</t>
+  </si>
+  <si>
+    <t>Афины</t>
+  </si>
+  <si>
+    <t>Бари</t>
+  </si>
+  <si>
+    <t>Россано</t>
+  </si>
+  <si>
+    <t>Кесария</t>
+  </si>
+  <si>
+    <t>Феодосиополь</t>
+  </si>
+  <si>
+    <t>Анкира</t>
+  </si>
+  <si>
+    <t>Эфес</t>
+  </si>
+  <si>
+    <t>Коринф</t>
+  </si>
+  <si>
+    <t>Фессалоника</t>
+  </si>
+  <si>
+    <t>Струмица</t>
+  </si>
+  <si>
+    <t>Триполи</t>
+  </si>
+  <si>
+    <t>Дамаск</t>
+  </si>
+  <si>
+    <t>Александрия</t>
+  </si>
+  <si>
+    <t>Кипр</t>
+  </si>
+  <si>
+    <t>Крит</t>
+  </si>
+  <si>
+    <t>Сис</t>
+  </si>
+  <si>
+    <t>Эдесса</t>
+  </si>
+  <si>
+    <t>Империя Тан</t>
+  </si>
+  <si>
+    <t>Чанъань</t>
+  </si>
+  <si>
+    <t>Юнан</t>
+  </si>
+  <si>
+    <t>Ханчжоу</t>
+  </si>
+  <si>
+    <t>Гуанчжоу</t>
+  </si>
+  <si>
+    <t>Лоян</t>
+  </si>
+  <si>
+    <t>Сонгм</t>
+  </si>
+  <si>
+    <t>Каракорум</t>
+  </si>
+  <si>
+    <t>Ючжоу</t>
+  </si>
+  <si>
+    <t>Чэнду</t>
+  </si>
+  <si>
+    <t>Сичжоу</t>
+  </si>
+  <si>
+    <t>Сучжоу</t>
   </si>
 </sst>
 </file>
@@ -312,8 +615,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -592,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150:A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +908,7 @@
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -615,649 +919,1961 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f>D2/1000</f>
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="D2" s="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">D3/1000</f>
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="D3" s="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.314</v>
+      </c>
+      <c r="D4" s="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.115</v>
+      </c>
+      <c r="D7" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.315</v>
+      </c>
+      <c r="D14" s="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="D17" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0.217</v>
+      </c>
+      <c r="D19" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="D20" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="D21" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0.245</v>
+      </c>
+      <c r="D23" s="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="D24" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="D25" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0.153</v>
+      </c>
+      <c r="D26" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D27" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="D28" s="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="D29" s="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="D30" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D31" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D32" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="D33" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="D34" s="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="D35" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D36" s="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="D37" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D38" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D39" s="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="D40" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>0.219</v>
+      </c>
+      <c r="D41" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="D42" s="1">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="D43" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="D44" s="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="D45" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="D46" s="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="D47" s="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>0.315</v>
+      </c>
+      <c r="D48" s="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>0.156</v>
+      </c>
+      <c r="D49" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="D50" s="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="D51" s="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="D52" s="1">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>0.193</v>
+      </c>
+      <c r="D53" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D54" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D55" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="D56" s="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>0.151</v>
+      </c>
+      <c r="D57" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D58" s="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D59" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>0.251</v>
+      </c>
+      <c r="D60" s="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="D61" s="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D62" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="D63" s="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>0.222</v>
+      </c>
+      <c r="D64" s="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="D65" s="1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="D66" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <f t="shared" ref="C67:C81" si="1">D67/1000</f>
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="D67" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>0.107</v>
+      </c>
+      <c r="D68" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="D69" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="D70" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="D71" s="1">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>0.219</v>
+      </c>
+      <c r="D72" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="D73" s="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D74" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>0.154</v>
+      </c>
+      <c r="D75" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D76" s="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="D77" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="D78" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>0.113</v>
+      </c>
+      <c r="D79" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>0.309</v>
+      </c>
+      <c r="D80" s="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
       </c>
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="D81" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+      <c r="H82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+      <c r="H89" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+      <c r="H94" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
+      </c>
+      <c r="H105" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>122</v>
+      </c>
+      <c r="H117" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>131</v>
+      </c>
+      <c r="H126" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>142</v>
+      </c>
+      <c r="H135" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>170</v>
+      </c>
+      <c r="H162" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown"/>
+  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1718702201" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">

--- a/The Rurik Empire/docs/regions.xlsx
+++ b/The Rurik Empire/docs/regions.xlsx
@@ -1,43 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileSharing readOnlyRecommended="0" userName="bazun"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\bazGames\The Rurik Empire\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE8E961-278C-47BD-82EE-513DC32CD61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="29040" windowHeight="15720" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1718702201" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1718702201" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1718702201" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1718702201"/>
+      <pm:revision xmlns:pm="smNativeData" day="1718998287" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1718998287" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1718998287" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1718998287"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="189">
   <si>
     <t>id</t>
   </si>
@@ -288,12 +274,12 @@
     <t>Черкассы</t>
   </si>
   <si>
+    <t>Итиль</t>
+  </si>
+  <si>
     <t>Хазарский каганат</t>
   </si>
   <si>
-    <t>Итиль</t>
-  </si>
-  <si>
     <t>Фанагория</t>
   </si>
   <si>
@@ -312,12 +298,12 @@
     <t>Боспор</t>
   </si>
   <si>
+    <t>Болгар</t>
+  </si>
+  <si>
     <t>Волжская булгария</t>
   </si>
   <si>
-    <t>Болгар</t>
-  </si>
-  <si>
     <t>Биляр</t>
   </si>
   <si>
@@ -330,12 +316,12 @@
     <t>Муромский городок</t>
   </si>
   <si>
+    <t>Велики-Преслав</t>
+  </si>
+  <si>
     <t>Первое Болгарское Царство</t>
   </si>
   <si>
-    <t>Велики-Преслав</t>
-  </si>
-  <si>
     <t>Чернград</t>
   </si>
   <si>
@@ -366,12 +352,12 @@
     <t>Ниш</t>
   </si>
   <si>
+    <t>Велеград</t>
+  </si>
+  <si>
     <t>Великая Моравия</t>
   </si>
   <si>
-    <t>Велеград</t>
-  </si>
-  <si>
     <t>Брно</t>
   </si>
   <si>
@@ -402,12 +388,12 @@
     <t>Мишны</t>
   </si>
   <si>
+    <t>Стари-Рас</t>
+  </si>
+  <si>
     <t>Рашка</t>
   </si>
   <si>
-    <t>Стари-Рас</t>
-  </si>
-  <si>
     <t>Студеница</t>
   </si>
   <si>
@@ -462,12 +448,12 @@
     <t>Сплит</t>
   </si>
   <si>
+    <t>Константинополь</t>
+  </si>
+  <si>
     <t>Византийская империя</t>
   </si>
   <si>
-    <t>Константинополь</t>
-  </si>
-  <si>
     <t>Никея</t>
   </si>
   <si>
@@ -546,12 +532,12 @@
     <t>Эдесса</t>
   </si>
   <si>
+    <t>Чанъань</t>
+  </si>
+  <si>
     <t>Империя Тан</t>
   </si>
   <si>
-    <t>Чанъань</t>
-  </si>
-  <si>
     <t>Юнан</t>
   </si>
   <si>
@@ -567,12 +553,12 @@
     <t>Сонгм</t>
   </si>
   <si>
+    <t>Ючжоу</t>
+  </si>
+  <si>
     <t>Каракорум</t>
   </si>
   <si>
-    <t>Ючжоу</t>
-  </si>
-  <si>
     <t>Чэнду</t>
   </si>
   <si>
@@ -580,59 +566,154 @@
   </si>
   <si>
     <t>Сучжоу</t>
+  </si>
+  <si>
+    <t>Кёнджу</t>
+  </si>
+  <si>
+    <t>Силла</t>
+  </si>
+  <si>
+    <t>Хансон</t>
+  </si>
+  <si>
+    <t>Пхеньян</t>
+  </si>
+  <si>
+    <t>Саби</t>
+  </si>
+  <si>
+    <t>Конджу</t>
+  </si>
+  <si>
+    <t>Тэя</t>
+  </si>
+  <si>
+    <t>Кымсон</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="9">
+    <numFmt numFmtId="5" formatCode="#,##0\ &quot;₽&quot;;\-#,##0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;₽&quot;;[Red]\-#,##0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="1" formatCode="0"/>
+  </numFmts>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1718998287" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Times New Roman" sz="220" lang="default"/>
+            <pm:ea face="SimSun" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="204"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1718998287" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1718998287" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1718998287"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1718998287"/>
+        </ext>
+      </extLst>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1718702201" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1718998287" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -645,10 +726,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="D5D5D5"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="494949"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="EEECE1"/>
@@ -895,20 +976,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H172"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150:A172"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.40"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.571429" customWidth="1"/>
+    <col min="3" max="3" width="10.714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -919,8 +1000,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:4">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -928,1566 +1009,1566 @@
       </c>
       <c r="C2">
         <f>D2/1000</f>
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="D2" s="1">
+        <v>0.298999999999999986</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:4">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="0">D3/1000</f>
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="D3" s="1">
+        <f>D3/1000</f>
+        <v>0.283999999999999986</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0.314</v>
-      </c>
-      <c r="D4" s="1">
+        <f>D4/1000</f>
+        <v>0.314000000000000012</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>314</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:4">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="D5" s="1">
+        <f>D5/1000</f>
+        <v>0.0379999999999999982</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:4">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="D6" s="1">
+        <f>D6/1000</f>
+        <v>0.0330000000000000027</v>
+      </c>
+      <c r="D6" s="1" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:4">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0.115</v>
-      </c>
-      <c r="D7" s="1">
+        <f>D7/1000</f>
+        <v>0.115000000000000013</v>
+      </c>
+      <c r="D7" s="1" t="n">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:4">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f>D8/1000</f>
         <v>0.1</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:4">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="D9" s="1">
+        <f>D9/1000</f>
+        <v>0.206000000000000005</v>
+      </c>
+      <c r="D9" s="1" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:4">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="D10" s="1">
+        <f>D10/1000</f>
+        <v>0.045</v>
+      </c>
+      <c r="D10" s="1" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:4">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="D11" s="1">
+        <f>D11/1000</f>
+        <v>0.142999999999999989</v>
+      </c>
+      <c r="D11" s="1" t="n">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:4">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="D12" s="1">
+        <f>D12/1000</f>
+        <v>0.135000000000000009</v>
+      </c>
+      <c r="D12" s="1" t="n">
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:4">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="D13" s="1">
+        <f>D13/1000</f>
+        <v>0.0509999999999999964</v>
+      </c>
+      <c r="D13" s="1" t="n">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:4">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>0.315</v>
-      </c>
-      <c r="D14" s="1">
+        <f>D14/1000</f>
+        <v>0.314999999999999991</v>
+      </c>
+      <c r="D14" s="1" t="n">
         <v>315</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:4">
+      <c r="A15" t="n">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D15" s="1">
+        <f>D15/1000</f>
+        <v>0.0410000000000000053</v>
+      </c>
+      <c r="D15" s="1" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:4">
+      <c r="A16" t="n">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="D16" s="1">
+        <f>D16/1000</f>
+        <v>0.258000000000000007</v>
+      </c>
+      <c r="D16" s="1" t="n">
         <v>258</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:4">
+      <c r="A17" t="n">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="D17" s="1">
+        <f>D17/1000</f>
+        <v>0.137000000000000011</v>
+      </c>
+      <c r="D17" s="1" t="n">
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:4">
+      <c r="A18" t="n">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="D18" s="1">
+        <f>D18/1000</f>
+        <v>0.0210000000000000009</v>
+      </c>
+      <c r="D18" s="1" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:4">
+      <c r="A19" t="n">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>0.217</v>
-      </c>
-      <c r="D19" s="1">
+        <f>D19/1000</f>
+        <v>0.216999999999999993</v>
+      </c>
+      <c r="D19" s="1" t="n">
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:4">
+      <c r="A20" t="n">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D20" s="1">
+        <f>D20/1000</f>
+        <v>0.208000000000000007</v>
+      </c>
+      <c r="D20" s="1" t="n">
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:4">
+      <c r="A21" t="n">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="D21" s="1">
+        <f>D21/1000</f>
+        <v>0.292999999999999972</v>
+      </c>
+      <c r="D21" s="1" t="n">
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:4">
+      <c r="A22" t="n">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="D22" s="1">
+        <f>D22/1000</f>
+        <v>0.306000000000000005</v>
+      </c>
+      <c r="D22" s="1" t="n">
         <v>306</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:4">
+      <c r="A23" t="n">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
-        <v>0.245</v>
-      </c>
-      <c r="D23" s="1">
+        <f>D23/1000</f>
+        <v>0.245000000000000018</v>
+      </c>
+      <c r="D23" s="1" t="n">
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:4">
+      <c r="A24" t="n">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="D24" s="1">
+        <f>D24/1000</f>
+        <v>0.237999999999999989</v>
+      </c>
+      <c r="D24" s="1" t="n">
         <v>238</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:4">
+      <c r="A25" t="n">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
-        <v>0.32</v>
-      </c>
-      <c r="D25" s="1">
+        <f>D25/1000</f>
+        <v>0.320000000000000018</v>
+      </c>
+      <c r="D25" s="1" t="n">
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:4">
+      <c r="A26" t="n">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
-        <v>0.153</v>
-      </c>
-      <c r="D26" s="1">
+        <f>D26/1000</f>
+        <v>0.153000000000000007</v>
+      </c>
+      <c r="D26" s="1" t="n">
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:4">
+      <c r="A27" t="n">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="D27" s="1">
+        <f>D27/1000</f>
+        <v>0.143999999999999995</v>
+      </c>
+      <c r="D27" s="1" t="n">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:4">
+      <c r="A28" t="n">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="D28" s="1">
+        <f>D28/1000</f>
+        <v>0.329000000000000004</v>
+      </c>
+      <c r="D28" s="1" t="n">
         <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:4">
+      <c r="A29" t="n">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="D29" s="1">
+        <f>D29/1000</f>
+        <v>0.241999999999999993</v>
+      </c>
+      <c r="D29" s="1" t="n">
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:4">
+      <c r="A30" t="n">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="D30" s="1">
+        <f>D30/1000</f>
+        <v>0.137000000000000011</v>
+      </c>
+      <c r="D30" s="1" t="n">
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:4">
+      <c r="A31" t="n">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
+        <f>D31/1000</f>
         <v>0.13600000000000001</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="1" t="n">
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:4">
+      <c r="A32" t="n">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="D32" s="1">
+        <f>D32/1000</f>
+        <v>0.162000000000000011</v>
+      </c>
+      <c r="D32" s="1" t="n">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:4">
+      <c r="A33" t="n">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
+        <f>D33/1000</f>
         <v>0.04</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="1" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:4">
+      <c r="A34" t="n">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="D34" s="1">
+        <f>D34/1000</f>
+        <v>0.269000000000000039</v>
+      </c>
+      <c r="D34" s="1" t="n">
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:4">
+      <c r="A35" t="n">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
-        <v>0.17</v>
-      </c>
-      <c r="D35" s="1">
+        <f>D35/1000</f>
+        <v>0.170000000000000018</v>
+      </c>
+      <c r="D35" s="1" t="n">
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:4">
+      <c r="A36" t="n">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="D36" s="1">
+        <f>D36/1000</f>
+        <v>0.234999999999999964</v>
+      </c>
+      <c r="D36" s="1" t="n">
         <v>235</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:4">
+      <c r="A37" t="n">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="D37" s="1">
+        <f>D37/1000</f>
+        <v>0.324000000000000021</v>
+      </c>
+      <c r="D37" s="1" t="n">
         <v>324</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:4">
+      <c r="A38" t="n">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="D38" s="1">
+        <f>D38/1000</f>
+        <v>0.143999999999999995</v>
+      </c>
+      <c r="D38" s="1" t="n">
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:4">
+      <c r="A39" t="n">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="D39" s="1">
+        <f>D39/1000</f>
+        <v>0.285999999999999979</v>
+      </c>
+      <c r="D39" s="1" t="n">
         <v>286</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:4">
+      <c r="A40" t="n">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="D40" s="1">
+        <f>D40/1000</f>
+        <v>0.117999999999999994</v>
+      </c>
+      <c r="D40" s="1" t="n">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="1:4">
+      <c r="A41" t="n">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
-        <v>0.219</v>
-      </c>
-      <c r="D41" s="1">
+        <f>D41/1000</f>
+        <v>0.218999999999999995</v>
+      </c>
+      <c r="D41" s="1" t="n">
         <v>219</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="1:4">
+      <c r="A42" t="n">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="D42" s="1">
+        <f>D42/1000</f>
+        <v>0.338000000000000034</v>
+      </c>
+      <c r="D42" s="1" t="n">
         <v>338</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="1:4">
+      <c r="A43" t="n">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="D43" s="1">
+        <f>D43/1000</f>
+        <v>0.141999999999999993</v>
+      </c>
+      <c r="D43" s="1" t="n">
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:4">
+      <c r="A44" t="n">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="D44" s="1">
+        <f>D44/1000</f>
+        <v>0.23400000000000003</v>
+      </c>
+      <c r="D44" s="1" t="n">
         <v>234</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="1:4">
+      <c r="A45" t="n">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="D45" s="1">
+        <f>D45/1000</f>
+        <v>0.177000000000000002</v>
+      </c>
+      <c r="D45" s="1" t="n">
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46" spans="1:4">
+      <c r="A46" t="n">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
       </c>
       <c r="C46">
-        <f t="shared" si="0"/>
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="D46" s="1">
+        <f>D46/1000</f>
+        <v>0.298999999999999986</v>
+      </c>
+      <c r="D46" s="1" t="n">
         <v>299</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47" spans="1:4">
+      <c r="A47" t="n">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
       </c>
       <c r="C47">
-        <f t="shared" si="0"/>
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="D47" s="1">
+        <f>D47/1000</f>
+        <v>0.262000000000000011</v>
+      </c>
+      <c r="D47" s="1" t="n">
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48" spans="1:4">
+      <c r="A48" t="n">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
       </c>
       <c r="C48">
-        <f t="shared" si="0"/>
-        <v>0.315</v>
-      </c>
-      <c r="D48" s="1">
+        <f>D48/1000</f>
+        <v>0.314999999999999991</v>
+      </c>
+      <c r="D48" s="1" t="n">
         <v>315</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="1:4">
+      <c r="A49" t="n">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
       </c>
       <c r="C49">
-        <f t="shared" si="0"/>
-        <v>0.156</v>
-      </c>
-      <c r="D49" s="1">
+        <f>D49/1000</f>
+        <v>0.156000000000000005</v>
+      </c>
+      <c r="D49" s="1" t="n">
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50" spans="1:4">
+      <c r="A50" t="n">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
       </c>
       <c r="C50">
-        <f t="shared" si="0"/>
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="D50" s="1">
+        <f>D50/1000</f>
+        <v>0.278000000000000025</v>
+      </c>
+      <c r="D50" s="1" t="n">
         <v>278</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51" spans="1:4">
+      <c r="A51" t="n">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
       </c>
       <c r="C51">
-        <f t="shared" si="0"/>
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="D51" s="1">
+        <f>D51/1000</f>
+        <v>0.242999999999999972</v>
+      </c>
+      <c r="D51" s="1" t="n">
         <v>243</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="1:4">
+      <c r="A52" t="n">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
       </c>
       <c r="C52">
-        <f t="shared" si="0"/>
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="D52" s="1">
+        <f>D52/1000</f>
+        <v>0.34399999999999995</v>
+      </c>
+      <c r="D52" s="1" t="n">
         <v>344</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="1:4">
+      <c r="A53" t="n">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
       </c>
       <c r="C53">
-        <f t="shared" si="0"/>
-        <v>0.193</v>
-      </c>
-      <c r="D53" s="1">
+        <f>D53/1000</f>
+        <v>0.193000000000000007</v>
+      </c>
+      <c r="D53" s="1" t="n">
         <v>193</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" spans="1:4">
+      <c r="A54" t="n">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
       <c r="C54">
-        <f t="shared" si="0"/>
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="D54" s="1">
+        <f>D54/1000</f>
+        <v>0.0459999999999999964</v>
+      </c>
+      <c r="D54" s="1" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" spans="1:4">
+      <c r="A55" t="n">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
       </c>
       <c r="C55">
-        <f t="shared" si="0"/>
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="D55" s="1">
+        <f>D55/1000</f>
+        <v>0.0690000000000000036</v>
+      </c>
+      <c r="D55" s="1" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56" spans="1:4">
+      <c r="A56" t="n">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
       </c>
       <c r="C56">
-        <f t="shared" si="0"/>
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="D56" s="1">
+        <f>D56/1000</f>
+        <v>0.226000000000000023</v>
+      </c>
+      <c r="D56" s="1" t="n">
         <v>226</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57" spans="1:4">
+      <c r="A57" t="n">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
       </c>
       <c r="C57">
-        <f t="shared" si="0"/>
-        <v>0.151</v>
-      </c>
-      <c r="D57" s="1">
+        <f>D57/1000</f>
+        <v>0.150999999999999996</v>
+      </c>
+      <c r="D57" s="1" t="n">
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" spans="1:4">
+      <c r="A58" t="n">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
       </c>
       <c r="C58">
-        <f t="shared" si="0"/>
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="D58" s="1">
+        <f>D58/1000</f>
+        <v>0.234999999999999964</v>
+      </c>
+      <c r="D58" s="1" t="n">
         <v>235</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59" spans="1:4">
+      <c r="A59" t="n">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
       </c>
       <c r="C59">
-        <f t="shared" si="0"/>
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="D59" s="1">
+        <f>D59/1000</f>
+        <v>0.0830000000000000071</v>
+      </c>
+      <c r="D59" s="1" t="n">
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="1:4">
+      <c r="A60" t="n">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
       </c>
       <c r="C60">
-        <f t="shared" si="0"/>
-        <v>0.251</v>
-      </c>
-      <c r="D60" s="1">
+        <f>D60/1000</f>
+        <v>0.250999999999999979</v>
+      </c>
+      <c r="D60" s="1" t="n">
         <v>251</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61" spans="1:4">
+      <c r="A61" t="n">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
       </c>
       <c r="C61">
-        <f t="shared" si="0"/>
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="D61" s="1">
+        <f>D61/1000</f>
+        <v>0.347999999999999954</v>
+      </c>
+      <c r="D61" s="1" t="n">
         <v>348</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" spans="1:4">
+      <c r="A62" t="n">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
       </c>
       <c r="C62">
-        <f t="shared" si="0"/>
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="D62" s="1">
+        <f>D62/1000</f>
+        <v>0.0869999999999999929</v>
+      </c>
+      <c r="D62" s="1" t="n">
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63" spans="1:4">
+      <c r="A63" t="n">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
       </c>
       <c r="C63">
-        <f t="shared" si="0"/>
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="D63" s="1">
+        <f>D63/1000</f>
+        <v>0.347999999999999954</v>
+      </c>
+      <c r="D63" s="1" t="n">
         <v>348</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="64" spans="1:4">
+      <c r="A64" t="n">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
       </c>
       <c r="C64">
-        <f t="shared" si="0"/>
-        <v>0.222</v>
-      </c>
-      <c r="D64" s="1">
+        <f>D64/1000</f>
+        <v>0.22200000000000002</v>
+      </c>
+      <c r="D64" s="1" t="n">
         <v>222</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="65" spans="1:4">
+      <c r="A65" t="n">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
       </c>
       <c r="C65">
-        <f t="shared" si="0"/>
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="D65" s="1">
+        <f>D65/1000</f>
+        <v>0.339000000000000012</v>
+      </c>
+      <c r="D65" s="1" t="n">
         <v>339</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="66" spans="1:4">
+      <c r="A66" t="n">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
       </c>
       <c r="C66">
-        <f t="shared" si="0"/>
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="D66" s="1">
+        <f>D66/1000</f>
+        <v>0.243999999999999995</v>
+      </c>
+      <c r="D66" s="1" t="n">
         <v>244</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="67" spans="1:4">
+      <c r="A67" t="n">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C81" si="1">D67/1000</f>
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="D67" s="1">
+        <f>D67/1000</f>
+        <v>0.118999999999999995</v>
+      </c>
+      <c r="D67" s="1" t="n">
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="68" spans="1:4">
+      <c r="A68" t="n">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
       </c>
       <c r="C68">
-        <f t="shared" si="1"/>
-        <v>0.107</v>
-      </c>
-      <c r="D68" s="1">
+        <f>D68/1000</f>
+        <v>0.107000000000000006</v>
+      </c>
+      <c r="D68" s="1" t="n">
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="69" spans="1:4">
+      <c r="A69" t="n">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
       </c>
       <c r="C69">
-        <f t="shared" si="1"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="D69" s="1">
+        <f>D69/1000</f>
+        <v>0.179000000000000004</v>
+      </c>
+      <c r="D69" s="1" t="n">
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="70" spans="1:4">
+      <c r="A70" t="n">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
       </c>
       <c r="C70">
-        <f t="shared" si="1"/>
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="D70" s="1">
+        <f>D70/1000</f>
+        <v>0.273000000000000043</v>
+      </c>
+      <c r="D70" s="1" t="n">
         <v>273</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="71" spans="1:4">
+      <c r="A71" t="n">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="D71" s="1">
+        <f>D71/1000</f>
+        <v>0.327000000000000002</v>
+      </c>
+      <c r="D71" s="1" t="n">
         <v>327</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="72" spans="1:4">
+      <c r="A72" t="n">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
       </c>
       <c r="C72">
-        <f t="shared" si="1"/>
-        <v>0.219</v>
-      </c>
-      <c r="D72" s="1">
+        <f>D72/1000</f>
+        <v>0.218999999999999995</v>
+      </c>
+      <c r="D72" s="1" t="n">
         <v>219</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="73" spans="1:4">
+      <c r="A73" t="n">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
       </c>
       <c r="C73">
-        <f t="shared" si="1"/>
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="D73" s="1">
+        <f>D73/1000</f>
+        <v>0.261000000000000032</v>
+      </c>
+      <c r="D73" s="1" t="n">
         <v>261</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="74" spans="1:4">
+      <c r="A74" t="n">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
       </c>
       <c r="C74">
-        <f t="shared" si="1"/>
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="D74" s="1">
+        <f>D74/1000</f>
+        <v>0.103000000000000003</v>
+      </c>
+      <c r="D74" s="1" t="n">
         <v>103</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="75" spans="1:4">
+      <c r="A75" t="n">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
       </c>
       <c r="C75">
-        <f t="shared" si="1"/>
-        <v>0.154</v>
-      </c>
-      <c r="D75" s="1">
+        <f>D75/1000</f>
+        <v>0.154000000000000004</v>
+      </c>
+      <c r="D75" s="1" t="n">
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="76" spans="1:4">
+      <c r="A76" t="n">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
       </c>
       <c r="C76">
-        <f t="shared" si="1"/>
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="D76" s="1">
+        <f>D76/1000</f>
+        <v>0.285999999999999979</v>
+      </c>
+      <c r="D76" s="1" t="n">
         <v>286</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="77" spans="1:4">
+      <c r="A77" t="n">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
       </c>
       <c r="C77">
-        <f t="shared" si="1"/>
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="D77" s="1">
+        <f>D77/1000</f>
+        <v>0.163000000000000007</v>
+      </c>
+      <c r="D77" s="1" t="n">
         <v>163</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="78" spans="1:4">
+      <c r="A78" t="n">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
       </c>
       <c r="C78">
-        <f t="shared" si="1"/>
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="D78" s="1">
+        <f>D78/1000</f>
+        <v>0.147999999999999998</v>
+      </c>
+      <c r="D78" s="1" t="n">
         <v>148</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="79" spans="1:4">
+      <c r="A79" t="n">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
       </c>
       <c r="C79">
-        <f t="shared" si="1"/>
-        <v>0.113</v>
-      </c>
-      <c r="D79" s="1">
+        <f>D79/1000</f>
+        <v>0.113000000000000012</v>
+      </c>
+      <c r="D79" s="1" t="n">
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="80" spans="1:4">
+      <c r="A80" t="n">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
       </c>
       <c r="C80">
-        <f t="shared" si="1"/>
-        <v>0.309</v>
-      </c>
-      <c r="D80" s="1">
+        <f>D80/1000</f>
+        <v>0.308999999999999986</v>
+      </c>
+      <c r="D80" s="1" t="n">
         <v>309</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="81" spans="1:4">
+      <c r="A81" t="n">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
       </c>
       <c r="C81">
-        <f t="shared" si="1"/>
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="D81" s="1">
+        <f>D81/1000</f>
+        <v>0.195999999999999996</v>
+      </c>
+      <c r="D81" s="1" t="n">
         <v>196</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="82" spans="1:8">
+      <c r="A82" t="n">
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="H82" t="s">
         <v>84</v>
       </c>
-      <c r="H82" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83">
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="n">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="84" spans="1:2">
+      <c r="A84" t="n">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="85" spans="1:2">
+      <c r="A85" t="n">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="86" spans="1:2">
+      <c r="A86" t="n">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="87" spans="1:2">
+      <c r="A87" t="n">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="88" spans="1:2">
+      <c r="A88" t="n">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="89" spans="1:8">
+      <c r="A89" t="n">
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>91</v>
+      </c>
+      <c r="H89" t="s">
         <v>92</v>
       </c>
-      <c r="H89" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90">
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="n">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="91" spans="1:2">
+      <c r="A91" t="n">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="92" spans="1:2">
+      <c r="A92" t="n">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="93" spans="1:2">
+      <c r="A93" t="n">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="94" spans="1:8">
+      <c r="A94" t="n">
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>97</v>
+      </c>
+      <c r="H94" t="s">
         <v>98</v>
       </c>
-      <c r="H94" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95">
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="n">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="96" spans="1:2">
+      <c r="A96" t="n">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="97" spans="1:2">
+      <c r="A97" t="n">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="98" spans="1:2">
+      <c r="A98" t="n">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="99" spans="1:2">
+      <c r="A99" t="n">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="100" spans="1:2">
+      <c r="A100" t="n">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="101" spans="1:2">
+      <c r="A101" t="n">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="102" spans="1:2">
+      <c r="A102" t="n">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103">
+    <row r="103" spans="1:2">
+      <c r="A103" t="n">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="104" spans="1:2">
+      <c r="A104" t="n">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row r="105" spans="1:8">
+      <c r="A105" t="n">
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>109</v>
+      </c>
+      <c r="H105" t="s">
         <v>110</v>
       </c>
-      <c r="H105" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106">
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="n">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="107" spans="1:2">
+      <c r="A107" t="n">
         <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="108" spans="1:2">
+      <c r="A108" t="n">
         <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row r="109" spans="1:2">
+      <c r="A109" t="n">
         <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row r="110" spans="1:2">
+      <c r="A110" t="n">
         <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row r="111" spans="1:2">
+      <c r="A111" t="n">
         <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row r="112" spans="1:2">
+      <c r="A112" t="n">
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row r="113" spans="1:2">
+      <c r="A113" t="n">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114">
+    <row r="114" spans="1:2">
+      <c r="A114" t="n">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115">
+    <row r="115" spans="1:2">
+      <c r="A115" t="n">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row r="116" spans="1:2">
+      <c r="A116" t="n">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117">
+    <row r="117" spans="1:8">
+      <c r="A117" t="n">
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>121</v>
+      </c>
+      <c r="H117" t="s">
         <v>122</v>
       </c>
-      <c r="H117" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118">
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="n">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119">
+    <row r="119" spans="1:2">
+      <c r="A119" t="n">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120">
+    <row r="120" spans="1:2">
+      <c r="A120" t="n">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121">
+    <row r="121" spans="1:2">
+      <c r="A121" t="n">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122">
+    <row r="122" spans="1:2">
+      <c r="A122" t="n">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123">
+    <row r="123" spans="1:2">
+      <c r="A123" t="n">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124">
+    <row r="124" spans="1:2">
+      <c r="A124" t="n">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125">
+    <row r="125" spans="1:2">
+      <c r="A125" t="n">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126">
+    <row r="126" spans="1:8">
+      <c r="A126" t="n">
         <v>125</v>
       </c>
       <c r="B126" t="s">
@@ -2497,386 +2578,441 @@
         <v>132</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127">
+    <row r="127" spans="1:2">
+      <c r="A127" t="n">
         <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128">
+    <row r="128" spans="1:2">
+      <c r="A128" t="n">
         <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129">
+    <row r="129" spans="1:2">
+      <c r="A129" t="n">
         <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130">
+    <row r="130" spans="1:2">
+      <c r="A130" t="n">
         <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131">
+    <row r="131" spans="1:2">
+      <c r="A131" t="n">
         <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132">
+    <row r="132" spans="1:2">
+      <c r="A132" t="n">
         <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row r="133" spans="1:2">
+      <c r="A133" t="n">
         <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134">
+    <row r="134" spans="1:2">
+      <c r="A134" t="n">
         <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135">
+    <row r="135" spans="1:8">
+      <c r="A135" t="n">
         <v>134</v>
       </c>
       <c r="B135" t="s">
+        <v>141</v>
+      </c>
+      <c r="H135" t="s">
         <v>142</v>
       </c>
-      <c r="H135" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136">
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="n">
         <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137">
+    <row r="137" spans="1:2">
+      <c r="A137" t="n">
         <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138">
+    <row r="138" spans="1:2">
+      <c r="A138" t="n">
         <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139">
+    <row r="139" spans="1:2">
+      <c r="A139" t="n">
         <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140">
+    <row r="140" spans="1:2">
+      <c r="A140" t="n">
         <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141">
+    <row r="141" spans="1:2">
+      <c r="A141" t="n">
         <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142">
+    <row r="142" spans="1:2">
+      <c r="A142" t="n">
         <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143">
+    <row r="143" spans="1:2">
+      <c r="A143" t="n">
         <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144">
+    <row r="144" spans="1:2">
+      <c r="A144" t="n">
         <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145">
+    <row r="145" spans="1:2">
+      <c r="A145" t="n">
         <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146">
+    <row r="146" spans="1:2">
+      <c r="A146" t="n">
         <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147">
+    <row r="147" spans="1:2">
+      <c r="A147" t="n">
         <v>146</v>
       </c>
       <c r="B147" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148">
+    <row r="148" spans="1:2">
+      <c r="A148" t="n">
         <v>147</v>
       </c>
       <c r="B148" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149">
+    <row r="149" spans="1:2">
+      <c r="A149" t="n">
         <v>148</v>
       </c>
       <c r="B149" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150">
+    <row r="150" spans="1:2">
+      <c r="A150" t="n">
         <v>149</v>
       </c>
       <c r="B150" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151">
+    <row r="151" spans="1:2">
+      <c r="A151" t="n">
         <v>150</v>
       </c>
       <c r="B151" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152">
+    <row r="152" spans="1:2">
+      <c r="A152" t="n">
         <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153">
+    <row r="153" spans="1:2">
+      <c r="A153" t="n">
         <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154">
+    <row r="154" spans="1:2">
+      <c r="A154" t="n">
         <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155">
+    <row r="155" spans="1:2">
+      <c r="A155" t="n">
         <v>154</v>
       </c>
       <c r="B155" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156">
+    <row r="156" spans="1:2">
+      <c r="A156" t="n">
         <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157">
+    <row r="157" spans="1:2">
+      <c r="A157" t="n">
         <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158">
+    <row r="158" spans="1:2">
+      <c r="A158" t="n">
         <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159">
+    <row r="159" spans="1:2">
+      <c r="A159" t="n">
         <v>158</v>
       </c>
       <c r="B159" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160">
+    <row r="160" spans="1:2">
+      <c r="A160" t="n">
         <v>159</v>
       </c>
       <c r="B160" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161">
+    <row r="161" spans="1:2">
+      <c r="A161" t="n">
         <v>160</v>
       </c>
       <c r="B161" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162">
+    <row r="162" spans="1:8">
+      <c r="A162" t="n">
         <v>161</v>
       </c>
       <c r="B162" t="s">
+        <v>169</v>
+      </c>
+      <c r="H162" t="s">
         <v>170</v>
       </c>
-      <c r="H162" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163">
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="n">
         <v>162</v>
       </c>
       <c r="B163" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164">
+    <row r="164" spans="1:2">
+      <c r="A164" t="n">
         <v>163</v>
       </c>
       <c r="B164" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165">
+    <row r="165" spans="1:2">
+      <c r="A165" t="n">
         <v>164</v>
       </c>
       <c r="B165" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166">
+    <row r="166" spans="1:2">
+      <c r="A166" t="n">
         <v>165</v>
       </c>
       <c r="B166" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167">
+    <row r="167" spans="1:2">
+      <c r="A167" t="n">
         <v>166</v>
       </c>
       <c r="B167" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168">
+    <row r="168" spans="1:2">
+      <c r="A168" t="n">
         <v>167</v>
       </c>
       <c r="B168" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>168</v>
-      </c>
-      <c r="B169" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170">
+    <row r="170" spans="1:2">
+      <c r="A170" t="n">
         <v>169</v>
       </c>
       <c r="B170" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171">
+    <row r="171" spans="1:2">
+      <c r="A171" t="n">
         <v>170</v>
       </c>
       <c r="B171" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172">
+    <row r="172" spans="1:2">
+      <c r="A172" t="n">
         <v>171</v>
       </c>
       <c r="B172" t="s">
         <v>180</v>
       </c>
     </row>
+    <row r="173" spans="2:8">
+      <c r="B173" t="s">
+        <v>181</v>
+      </c>
+      <c r="H173" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" t="s">
+        <v>188</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1718998287" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1718998287" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1718998287" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1718998287" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1718998287" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1718702201" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1718998287" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/The Rurik Empire/docs/regions.xlsx
+++ b/The Rurik Empire/docs/regions.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1718998287" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1718998287" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1718998287" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1718998287"/>
+      <pm:revision xmlns:pm="smNativeData" day="1719075138" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1719075138" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1719075138" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1719075138"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="232">
   <si>
     <t>id</t>
   </si>
@@ -590,6 +590,135 @@
   </si>
   <si>
     <t>Кымсон</t>
+  </si>
+  <si>
+    <t>Хэйан-кё</t>
+  </si>
+  <si>
+    <t>Япония</t>
+  </si>
+  <si>
+    <t>Нагаока</t>
+  </si>
+  <si>
+    <t>Нара</t>
+  </si>
+  <si>
+    <t>Осака</t>
+  </si>
+  <si>
+    <t>Киото</t>
+  </si>
+  <si>
+    <t>Хиросима</t>
+  </si>
+  <si>
+    <t>Кобе</t>
+  </si>
+  <si>
+    <t>Токио</t>
+  </si>
+  <si>
+    <t>Аббасидский халифат</t>
+  </si>
+  <si>
+    <t>Багдад</t>
+  </si>
+  <si>
+    <t>Самарра</t>
+  </si>
+  <si>
+    <t>Медина</t>
+  </si>
+  <si>
+    <t>Алеппо</t>
+  </si>
+  <si>
+    <t>Басра</t>
+  </si>
+  <si>
+    <t>Мекка</t>
+  </si>
+  <si>
+    <t>Саксония</t>
+  </si>
+  <si>
+    <t>Восточно-Франкское</t>
+  </si>
+  <si>
+    <t>Тюрингия</t>
+  </si>
+  <si>
+    <t>Бавария</t>
+  </si>
+  <si>
+    <t>Алемания</t>
+  </si>
+  <si>
+    <t>Франкфурт-на-Майне</t>
+  </si>
+  <si>
+    <t>Бремен</t>
+  </si>
+  <si>
+    <t>Падеборн</t>
+  </si>
+  <si>
+    <t>Майнц</t>
+  </si>
+  <si>
+    <t>Регенсбург</t>
+  </si>
+  <si>
+    <t>Кур</t>
+  </si>
+  <si>
+    <t>Гамбург</t>
+  </si>
+  <si>
+    <t>Нанси</t>
+  </si>
+  <si>
+    <t>Лотарингия</t>
+  </si>
+  <si>
+    <t>Кельн</t>
+  </si>
+  <si>
+    <t>Льеж</t>
+  </si>
+  <si>
+    <t>Верден</t>
+  </si>
+  <si>
+    <t>Безансон</t>
+  </si>
+  <si>
+    <t>Ахен</t>
+  </si>
+  <si>
+    <t>Нант</t>
+  </si>
+  <si>
+    <t>Западно-Франкское</t>
+  </si>
+  <si>
+    <t>Тур</t>
+  </si>
+  <si>
+    <t>Париж</t>
+  </si>
+  <si>
+    <t>Нарбонн</t>
+  </si>
+  <si>
+    <t>Бордо</t>
+  </si>
+  <si>
+    <t>Барселона</t>
+  </si>
+  <si>
+    <t>Реймс</t>
   </si>
 </sst>
 </file>
@@ -616,7 +745,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1718998287" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1719075138" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -632,7 +761,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1718998287" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1719075138" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -654,7 +783,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1718998287" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1719075138" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -676,7 +805,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1718998287"/>
+          <pm:border xmlns:pm="smNativeData" id="1719075138"/>
         </ext>
       </extLst>
     </border>
@@ -695,7 +824,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1718998287"/>
+          <pm:border xmlns:pm="smNativeData" id="1719075138"/>
         </ext>
       </extLst>
     </border>
@@ -713,7 +842,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1718998287" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1719075138" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -977,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H179"/>
+  <dimension ref="A1:H219"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -2990,11 +3119,226 @@
         <v>188</v>
       </c>
     </row>
+    <row r="180" spans="2:8">
+      <c r="B180" t="s">
+        <v>189</v>
+      </c>
+      <c r="H180" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8">
+      <c r="B188" t="s">
+        <v>163</v>
+      </c>
+      <c r="H188" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8">
+      <c r="B196" t="s">
+        <v>205</v>
+      </c>
+      <c r="H196" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8">
+      <c r="B207" t="s">
+        <v>217</v>
+      </c>
+      <c r="H207" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8">
+      <c r="B213" t="s">
+        <v>224</v>
+      </c>
+      <c r="H213" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" t="s">
+        <v>231</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1718998287" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1719075138" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3003,16 +3347,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1718998287" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1718998287" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1718998287" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1718998287" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1719075138" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1719075138" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1719075138" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1719075138" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1718998287" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1719075138" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/The Rurik Empire/docs/regions.xlsx
+++ b/The Rurik Empire/docs/regions.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1719075138" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1719075138" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1719075138" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1719075138"/>
+      <pm:revision xmlns:pm="smNativeData" day="1719076115" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1719076115" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1719076115" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1719076115"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="240">
   <si>
     <t>id</t>
   </si>
@@ -719,6 +719,30 @@
   </si>
   <si>
     <t>Реймс</t>
+  </si>
+  <si>
+    <t>Арль</t>
+  </si>
+  <si>
+    <t>Прованс</t>
+  </si>
+  <si>
+    <t>Марсель</t>
+  </si>
+  <si>
+    <t>Скун</t>
+  </si>
+  <si>
+    <t>Шотландия</t>
+  </si>
+  <si>
+    <t>Эдинбург</t>
+  </si>
+  <si>
+    <t>Дамбартон</t>
+  </si>
+  <si>
+    <t>Карлайл</t>
   </si>
 </sst>
 </file>
@@ -745,7 +769,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719075138" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1719076115" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -761,7 +785,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719075138" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1719076115" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -783,7 +807,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1719075138" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1719076115" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -805,7 +829,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1719075138"/>
+          <pm:border xmlns:pm="smNativeData" id="1719076115"/>
         </ext>
       </extLst>
     </border>
@@ -824,7 +848,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1719075138"/>
+          <pm:border xmlns:pm="smNativeData" id="1719076115"/>
         </ext>
       </extLst>
     </border>
@@ -842,7 +866,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1719075138" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1719076115" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -1106,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H219"/>
+  <dimension ref="A1:H226"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="B220" sqref="B220"/>
+      <selection activeCell="B227" sqref="B227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -3334,11 +3358,52 @@
         <v>231</v>
       </c>
     </row>
+    <row r="220" spans="2:8">
+      <c r="B220" t="s">
+        <v>232</v>
+      </c>
+      <c r="H220" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8">
+      <c r="B223" t="s">
+        <v>235</v>
+      </c>
+      <c r="H223" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" t="s">
+        <v>239</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1719075138" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1719076115" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3347,16 +3412,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1719075138" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1719075138" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1719075138" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1719075138" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1719076115" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1719076115" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1719076115" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1719076115" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1719075138" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1719076115" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/The Rurik Empire/docs/regions.xlsx
+++ b/The Rurik Empire/docs/regions.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1719076115" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1719076115" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1719076115" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1719076115"/>
+      <pm:revision xmlns:pm="smNativeData" day="1719085769" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1719085769" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1719085769" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1719085769"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="472">
   <si>
     <t>id</t>
   </si>
@@ -743,6 +743,702 @@
   </si>
   <si>
     <t>Карлайл</t>
+  </si>
+  <si>
+    <t>Бретань</t>
+  </si>
+  <si>
+    <t>Ренн</t>
+  </si>
+  <si>
+    <t>Нидарос</t>
+  </si>
+  <si>
+    <t>Королевство Норвегия</t>
+  </si>
+  <si>
+    <t>Бьёргвин</t>
+  </si>
+  <si>
+    <t>Осло</t>
+  </si>
+  <si>
+    <t>Гвальдснес</t>
+  </si>
+  <si>
+    <t>Рим</t>
+  </si>
+  <si>
+    <t>Папская область</t>
+  </si>
+  <si>
+    <t>Сан-Марино</t>
+  </si>
+  <si>
+    <t>Овьедо</t>
+  </si>
+  <si>
+    <t>Астурия</t>
+  </si>
+  <si>
+    <t>Порто</t>
+  </si>
+  <si>
+    <t>Кордова</t>
+  </si>
+  <si>
+    <t>Кордовский Эмират</t>
+  </si>
+  <si>
+    <t>Сарагоса</t>
+  </si>
+  <si>
+    <t>Саламанка</t>
+  </si>
+  <si>
+    <t>Толедо</t>
+  </si>
+  <si>
+    <t>Севилья</t>
+  </si>
+  <si>
+    <t>Мерида</t>
+  </si>
+  <si>
+    <t>Малага</t>
+  </si>
+  <si>
+    <t>Валенсия</t>
+  </si>
+  <si>
+    <t>Мурсия</t>
+  </si>
+  <si>
+    <t>Лиссабон</t>
+  </si>
+  <si>
+    <t>Павия</t>
+  </si>
+  <si>
+    <t>Королевство Италия</t>
+  </si>
+  <si>
+    <t>Генуа</t>
+  </si>
+  <si>
+    <t>Пиза</t>
+  </si>
+  <si>
+    <t>Милан</t>
+  </si>
+  <si>
+    <t>Верона</t>
+  </si>
+  <si>
+    <t>Турин</t>
+  </si>
+  <si>
+    <t>Бамборо</t>
+  </si>
+  <si>
+    <t>Королевство Нортумбрия</t>
+  </si>
+  <si>
+    <t>Йорк</t>
+  </si>
+  <si>
+    <t>Винчестер</t>
+  </si>
+  <si>
+    <t>Королевство Уэссекс</t>
+  </si>
+  <si>
+    <t>Кантберри</t>
+  </si>
+  <si>
+    <t>Рочестер</t>
+  </si>
+  <si>
+    <t>Тамуэрт</t>
+  </si>
+  <si>
+    <t>Королевство Мерсия</t>
+  </si>
+  <si>
+    <t>Лондон</t>
+  </si>
+  <si>
+    <t>Данло</t>
+  </si>
+  <si>
+    <t>Данелаг</t>
+  </si>
+  <si>
+    <t>Честер</t>
+  </si>
+  <si>
+    <t>Вьенн</t>
+  </si>
+  <si>
+    <t>Королевство Нижняя Бургундия</t>
+  </si>
+  <si>
+    <t>Лион</t>
+  </si>
+  <si>
+    <t>Ницца</t>
+  </si>
+  <si>
+    <t>Женева</t>
+  </si>
+  <si>
+    <t>Королевство Верхняя Бургундия</t>
+  </si>
+  <si>
+    <t>Базель</t>
+  </si>
+  <si>
+    <t>Оломоуц</t>
+  </si>
+  <si>
+    <t>Пражское Княжество</t>
+  </si>
+  <si>
+    <t>Табор</t>
+  </si>
+  <si>
+    <t>Шанцзин</t>
+  </si>
+  <si>
+    <t>Империя Ляо</t>
+  </si>
+  <si>
+    <t>Бохай</t>
+  </si>
+  <si>
+    <t>Датун</t>
+  </si>
+  <si>
+    <t>Пекин</t>
+  </si>
+  <si>
+    <t>Нинчэн</t>
+  </si>
+  <si>
+    <t>Германское Королевство</t>
+  </si>
+  <si>
+    <t>Бранибор</t>
+  </si>
+  <si>
+    <t>Дортмунд</t>
+  </si>
+  <si>
+    <t>Люксембург</t>
+  </si>
+  <si>
+    <t>Страсбург</t>
+  </si>
+  <si>
+    <t>Аугсбург</t>
+  </si>
+  <si>
+    <t>Цюрих</t>
+  </si>
+  <si>
+    <t>Зальцбург</t>
+  </si>
+  <si>
+    <t>Нюрнберг</t>
+  </si>
+  <si>
+    <t>Франкфурт</t>
+  </si>
+  <si>
+    <t>Кэгён</t>
+  </si>
+  <si>
+    <t>Корё</t>
+  </si>
+  <si>
+    <t>Согён</t>
+  </si>
+  <si>
+    <t>Намгён</t>
+  </si>
+  <si>
+    <t>Чонджу</t>
+  </si>
+  <si>
+    <t>Тонгён</t>
+  </si>
+  <si>
+    <t>Чхонджу</t>
+  </si>
+  <si>
+    <t>Кванджу</t>
+  </si>
+  <si>
+    <t>Чинджу</t>
+  </si>
+  <si>
+    <t>Кэсон</t>
+  </si>
+  <si>
+    <t>Леон</t>
+  </si>
+  <si>
+    <t>Королевство Леон</t>
+  </si>
+  <si>
+    <t>Компостела</t>
+  </si>
+  <si>
+    <t>Брага</t>
+  </si>
+  <si>
+    <t>Бургос</t>
+  </si>
+  <si>
+    <t>Бристоль</t>
+  </si>
+  <si>
+    <t>Королевство Англия</t>
+  </si>
+  <si>
+    <t>Оксфорд</t>
+  </si>
+  <si>
+    <t>Манчестер</t>
+  </si>
+  <si>
+    <t>Ноттингем</t>
+  </si>
+  <si>
+    <t>Лестер</t>
+  </si>
+  <si>
+    <t>Дерби</t>
+  </si>
+  <si>
+    <t>Бургундское Королевство</t>
+  </si>
+  <si>
+    <t>Берн</t>
+  </si>
+  <si>
+    <t>Лозанна</t>
+  </si>
+  <si>
+    <t>Гренобль</t>
+  </si>
+  <si>
+    <t>Сьон</t>
+  </si>
+  <si>
+    <t>Копенгаген</t>
+  </si>
+  <si>
+    <t>Королевство Дания</t>
+  </si>
+  <si>
+    <t>Ольборг</t>
+  </si>
+  <si>
+    <t>Виборг</t>
+  </si>
+  <si>
+    <t>Орхус</t>
+  </si>
+  <si>
+    <t>Вайле</t>
+  </si>
+  <si>
+    <t>Оденсе</t>
+  </si>
+  <si>
+    <t>Гнезно</t>
+  </si>
+  <si>
+    <t>Польша</t>
+  </si>
+  <si>
+    <t>Брест-Литовский</t>
+  </si>
+  <si>
+    <t>Ровно</t>
+  </si>
+  <si>
+    <t>Люблин</t>
+  </si>
+  <si>
+    <t>Гданьск</t>
+  </si>
+  <si>
+    <t>Познань</t>
+  </si>
+  <si>
+    <t>Львов</t>
+  </si>
+  <si>
+    <t>Бяньлян</t>
+  </si>
+  <si>
+    <t>Империя Сун</t>
+  </si>
+  <si>
+    <t>Нанкин</t>
+  </si>
+  <si>
+    <t>Тайвань</t>
+  </si>
+  <si>
+    <t>Упсала</t>
+  </si>
+  <si>
+    <t>Королевство Швеция</t>
+  </si>
+  <si>
+    <t>Стокгольм</t>
+  </si>
+  <si>
+    <t>Мальмё</t>
+  </si>
+  <si>
+    <t>Ревель</t>
+  </si>
+  <si>
+    <t>Висбю</t>
+  </si>
+  <si>
+    <t>Священная Римская Империя</t>
+  </si>
+  <si>
+    <t>Венеция</t>
+  </si>
+  <si>
+    <t>Брюссель</t>
+  </si>
+  <si>
+    <t>Антверпен</t>
+  </si>
+  <si>
+    <t>Магдебург</t>
+  </si>
+  <si>
+    <t>Вена</t>
+  </si>
+  <si>
+    <t>Бергамо</t>
+  </si>
+  <si>
+    <t>Сиена</t>
+  </si>
+  <si>
+    <t>Корсика</t>
+  </si>
+  <si>
+    <t>Эстергом</t>
+  </si>
+  <si>
+    <t>Королевство Венгрия</t>
+  </si>
+  <si>
+    <t>Унгвар</t>
+  </si>
+  <si>
+    <t>Кошице</t>
+  </si>
+  <si>
+    <t>Братислава</t>
+  </si>
+  <si>
+    <t>Загреб</t>
+  </si>
+  <si>
+    <t>Карловцы</t>
+  </si>
+  <si>
+    <t>Коложвар</t>
+  </si>
+  <si>
+    <t>Дебрецен</t>
+  </si>
+  <si>
+    <t>Банска-Быстрица</t>
+  </si>
+  <si>
+    <t>Орлеан</t>
+  </si>
+  <si>
+    <t>Королевство Франция</t>
+  </si>
+  <si>
+    <t>Анже</t>
+  </si>
+  <si>
+    <t>Бурбон</t>
+  </si>
+  <si>
+    <t>Лилль</t>
+  </si>
+  <si>
+    <t>Тулуза</t>
+  </si>
+  <si>
+    <t>Гасконь</t>
+  </si>
+  <si>
+    <t>Нормандия</t>
+  </si>
+  <si>
+    <t>Мэн</t>
+  </si>
+  <si>
+    <t>Империя Си Ся</t>
+  </si>
+  <si>
+    <t>Полоцкое Княжество</t>
+  </si>
+  <si>
+    <t>Переяславское Княжество</t>
+  </si>
+  <si>
+    <t>Черниговское Княжество</t>
+  </si>
+  <si>
+    <t>Новгород-Северское Княжество</t>
+  </si>
+  <si>
+    <t>Империя Цзинь</t>
+  </si>
+  <si>
+    <t>Минское Княжество</t>
+  </si>
+  <si>
+    <t>Каракитайское Ханство</t>
+  </si>
+  <si>
+    <t>Кыпчакское Ханство</t>
+  </si>
+  <si>
+    <t>Смоленское Княжество</t>
+  </si>
+  <si>
+    <t>Рязанское Княжество</t>
+  </si>
+  <si>
+    <t>Новгородская Республика</t>
+  </si>
+  <si>
+    <t>Графство Португалия</t>
+  </si>
+  <si>
+    <t>Витебское Княжество</t>
+  </si>
+  <si>
+    <t>Владимирское Княжество</t>
+  </si>
+  <si>
+    <t>Волынское Княжество</t>
+  </si>
+  <si>
+    <t>Эрцгерцогство Австрия</t>
+  </si>
+  <si>
+    <t>Королевство Кастилия</t>
+  </si>
+  <si>
+    <t>Монгольская Империя</t>
+  </si>
+  <si>
+    <t>Афинское Герцогство</t>
+  </si>
+  <si>
+    <t>Второе Болгарское Царство</t>
+  </si>
+  <si>
+    <t>Королевство Чехия</t>
+  </si>
+  <si>
+    <t>Галицко-Волынское Княжество</t>
+  </si>
+  <si>
+    <t>Датская Эстляндия</t>
+  </si>
+  <si>
+    <t>Орден Меченосцев</t>
+  </si>
+  <si>
+    <t>Великое Княжество Литовское</t>
+  </si>
+  <si>
+    <t>Тевтонский Орден</t>
+  </si>
+  <si>
+    <t>Золотая Орда</t>
+  </si>
+  <si>
+    <t>Княжество Уэльс</t>
+  </si>
+  <si>
+    <t>Монгольская Империя Юань</t>
+  </si>
+  <si>
+    <t>Московское Княжество</t>
+  </si>
+  <si>
+    <t>Неополитанское Королевство</t>
+  </si>
+  <si>
+    <t>Королевство Сицилия</t>
+  </si>
+  <si>
+    <t>Княжество Валахия</t>
+  </si>
+  <si>
+    <t>Псковская Республика</t>
+  </si>
+  <si>
+    <t>Османский Эмират</t>
+  </si>
+  <si>
+    <t>Княжество Молдова</t>
+  </si>
+  <si>
+    <t>Сербское Царство</t>
+  </si>
+  <si>
+    <t>Китайская Империя Мин</t>
+  </si>
+  <si>
+    <t>Северная Юань</t>
+  </si>
+  <si>
+    <t>Тырновское Царство</t>
+  </si>
+  <si>
+    <t>Босния</t>
+  </si>
+  <si>
+    <t>Моравская Сербия</t>
+  </si>
+  <si>
+    <t>Зета</t>
+  </si>
+  <si>
+    <t>Область Бранковича</t>
+  </si>
+  <si>
+    <t>Швейцария</t>
+  </si>
+  <si>
+    <t>Государство Великий Чосон</t>
+  </si>
+  <si>
+    <t>Бургундское Герцегство</t>
+  </si>
+  <si>
+    <t>Нижегородско-Суздальское Княжество</t>
+  </si>
+  <si>
+    <t>Сербская Деспотия</t>
+  </si>
+  <si>
+    <t>Миланское Герцегство</t>
+  </si>
+  <si>
+    <t>Королевство Кастилия и Леон</t>
+  </si>
+  <si>
+    <t>Венецианская Республика</t>
+  </si>
+  <si>
+    <t>Казанское Ханство</t>
+  </si>
+  <si>
+    <t>Ливонский Орден</t>
+  </si>
+  <si>
+    <t>Герцеговина</t>
+  </si>
+  <si>
+    <t>Крымское Ханство</t>
+  </si>
+  <si>
+    <t>Астраханское Ханство</t>
+  </si>
+  <si>
+    <t>Грузинское Царство</t>
+  </si>
+  <si>
+    <t>Османская Империя</t>
+  </si>
+  <si>
+    <t>Тюменское Ханство</t>
+  </si>
+  <si>
+    <t>Казахское Ханство</t>
+  </si>
+  <si>
+    <t>Тверское Княжество</t>
+  </si>
+  <si>
+    <t>Королевство Арагон</t>
+  </si>
+  <si>
+    <t>Сибирское Ханство</t>
+  </si>
+  <si>
+    <t>Габсбургская Империя</t>
+  </si>
+  <si>
+    <t>Восточно-Венгерское Королевство</t>
+  </si>
+  <si>
+    <t>Ногайская Орда</t>
+  </si>
+  <si>
+    <t>Королевство Испания</t>
+  </si>
+  <si>
+    <t>Русское Царство</t>
+  </si>
+  <si>
+    <t>Рюкю</t>
+  </si>
+  <si>
+    <t>Королевство Ирландия</t>
+  </si>
+  <si>
+    <t>Шведская Эстляндия</t>
+  </si>
+  <si>
+    <t>Курляндское Епископство</t>
+  </si>
+  <si>
+    <t>Речь Посполитая</t>
+  </si>
+  <si>
+    <t>Трансильвания</t>
+  </si>
+  <si>
+    <t>Испанские Нидерладны</t>
+  </si>
+  <si>
+    <t>Республика Соединенных Провинций</t>
+  </si>
+  <si>
+    <t>Шлезвиг</t>
+  </si>
+  <si>
+    <t>Гольштейн</t>
+  </si>
+  <si>
+    <t>Кордовский Халифат</t>
+  </si>
+  <si>
+    <t>Неизвестный</t>
   </si>
 </sst>
 </file>
@@ -769,7 +1465,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719076115" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1719085769" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -785,7 +1481,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719076115" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1719085769" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -807,7 +1503,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1719076115" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1719085769" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -829,7 +1525,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1719076115"/>
+          <pm:border xmlns:pm="smNativeData" id="1719085769"/>
         </ext>
       </extLst>
     </border>
@@ -848,7 +1544,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1719076115"/>
+          <pm:border xmlns:pm="smNativeData" id="1719085769"/>
         </ext>
       </extLst>
     </border>
@@ -866,7 +1562,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1719076115" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1719085769" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -1130,10 +1826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H226"/>
+  <dimension ref="A1:H445"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="B227" sqref="B227"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="B363" sqref="B363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -3105,7 +3801,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="173" spans="2:8">
+    <row r="173" spans="1:8">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
       <c r="B173" t="s">
         <v>181</v>
       </c>
@@ -3113,37 +3812,58 @@
         <v>182</v>
       </c>
     </row>
-    <row r="174" spans="2:2">
+    <row r="174" spans="1:2">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
       <c r="B174" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="175" spans="2:2">
+    <row r="175" spans="1:2">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
       <c r="B175" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="176" spans="2:2">
+    <row r="176" spans="1:2">
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
       <c r="B176" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="177" spans="2:2">
+    <row r="177" spans="1:2">
+      <c r="A177" t="n">
+        <v>176</v>
+      </c>
       <c r="B177" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="178" spans="2:2">
+    <row r="178" spans="1:2">
+      <c r="A178" t="n">
+        <v>177</v>
+      </c>
       <c r="B178" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="179" spans="2:2">
+    <row r="179" spans="1:2">
+      <c r="A179" t="n">
+        <v>178</v>
+      </c>
       <c r="B179" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="180" spans="2:8">
+    <row r="180" spans="1:8">
+      <c r="A180" t="n">
+        <v>179</v>
+      </c>
       <c r="B180" t="s">
         <v>189</v>
       </c>
@@ -3151,42 +3871,66 @@
         <v>190</v>
       </c>
     </row>
-    <row r="181" spans="2:2">
+    <row r="181" spans="1:2">
+      <c r="A181" t="n">
+        <v>180</v>
+      </c>
       <c r="B181" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="182" spans="2:2">
+    <row r="182" spans="1:2">
+      <c r="A182" t="n">
+        <v>181</v>
+      </c>
       <c r="B182" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="183" spans="2:2">
+    <row r="183" spans="1:2">
+      <c r="A183" t="n">
+        <v>182</v>
+      </c>
       <c r="B183" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="184" spans="2:2">
+    <row r="184" spans="1:2">
+      <c r="A184" t="n">
+        <v>183</v>
+      </c>
       <c r="B184" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="185" spans="2:2">
+    <row r="185" spans="1:2">
+      <c r="A185" t="n">
+        <v>184</v>
+      </c>
       <c r="B185" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="186" spans="2:2">
+    <row r="186" spans="1:2">
+      <c r="A186" t="n">
+        <v>185</v>
+      </c>
       <c r="B186" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="187" spans="2:2">
+    <row r="187" spans="1:2">
+      <c r="A187" t="n">
+        <v>186</v>
+      </c>
       <c r="B187" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="188" spans="2:8">
+    <row r="188" spans="1:8">
+      <c r="A188" t="n">
+        <v>187</v>
+      </c>
       <c r="B188" t="s">
         <v>163</v>
       </c>
@@ -3194,42 +3938,66 @@
         <v>198</v>
       </c>
     </row>
-    <row r="189" spans="2:2">
+    <row r="189" spans="1:2">
+      <c r="A189" t="n">
+        <v>188</v>
+      </c>
       <c r="B189" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="190" spans="2:2">
+    <row r="190" spans="1:2">
+      <c r="A190" t="n">
+        <v>189</v>
+      </c>
       <c r="B190" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="191" spans="2:2">
+    <row r="191" spans="1:2">
+      <c r="A191" t="n">
+        <v>190</v>
+      </c>
       <c r="B191" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="192" spans="2:2">
+    <row r="192" spans="1:2">
+      <c r="A192" t="n">
+        <v>191</v>
+      </c>
       <c r="B192" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="193" spans="2:2">
+    <row r="193" spans="1:2">
+      <c r="A193" t="n">
+        <v>192</v>
+      </c>
       <c r="B193" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="194" spans="2:2">
+    <row r="194" spans="1:2">
+      <c r="A194" t="n">
+        <v>193</v>
+      </c>
       <c r="B194" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="195" spans="2:2">
+    <row r="195" spans="1:2">
+      <c r="A195" t="n">
+        <v>194</v>
+      </c>
       <c r="B195" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="196" spans="2:8">
+    <row r="196" spans="1:8">
+      <c r="A196" t="n">
+        <v>195</v>
+      </c>
       <c r="B196" t="s">
         <v>205</v>
       </c>
@@ -3237,57 +4005,90 @@
         <v>206</v>
       </c>
     </row>
-    <row r="197" spans="2:2">
+    <row r="197" spans="1:2">
+      <c r="A197" t="n">
+        <v>196</v>
+      </c>
       <c r="B197" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="198" spans="2:2">
+    <row r="198" spans="1:2">
+      <c r="A198" t="n">
+        <v>197</v>
+      </c>
       <c r="B198" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="199" spans="2:2">
+    <row r="199" spans="1:2">
+      <c r="A199" t="n">
+        <v>198</v>
+      </c>
       <c r="B199" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="200" spans="2:2">
+    <row r="200" spans="1:2">
+      <c r="A200" t="n">
+        <v>199</v>
+      </c>
       <c r="B200" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="201" spans="2:2">
+    <row r="201" spans="1:2">
+      <c r="A201" t="n">
+        <v>200</v>
+      </c>
       <c r="B201" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="202" spans="2:2">
+    <row r="202" spans="1:2">
+      <c r="A202" t="n">
+        <v>201</v>
+      </c>
       <c r="B202" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="203" spans="2:2">
+    <row r="203" spans="1:2">
+      <c r="A203" t="n">
+        <v>202</v>
+      </c>
       <c r="B203" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="204" spans="2:2">
+    <row r="204" spans="1:2">
+      <c r="A204" t="n">
+        <v>203</v>
+      </c>
       <c r="B204" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="205" spans="2:2">
+    <row r="205" spans="1:2">
+      <c r="A205" t="n">
+        <v>204</v>
+      </c>
       <c r="B205" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="206" spans="2:2">
+    <row r="206" spans="1:2">
+      <c r="A206" t="n">
+        <v>205</v>
+      </c>
       <c r="B206" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="207" spans="2:8">
+    <row r="207" spans="1:8">
+      <c r="A207" t="n">
+        <v>206</v>
+      </c>
       <c r="B207" t="s">
         <v>217</v>
       </c>
@@ -3295,32 +4096,50 @@
         <v>218</v>
       </c>
     </row>
-    <row r="208" spans="2:2">
+    <row r="208" spans="1:2">
+      <c r="A208" t="n">
+        <v>207</v>
+      </c>
       <c r="B208" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="209" spans="2:2">
+    <row r="209" spans="1:2">
+      <c r="A209" t="n">
+        <v>208</v>
+      </c>
       <c r="B209" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="210" spans="2:2">
+    <row r="210" spans="1:2">
+      <c r="A210" t="n">
+        <v>209</v>
+      </c>
       <c r="B210" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="211" spans="2:2">
+    <row r="211" spans="1:2">
+      <c r="A211" t="n">
+        <v>210</v>
+      </c>
       <c r="B211" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="212" spans="2:2">
+    <row r="212" spans="1:2">
+      <c r="A212" t="n">
+        <v>211</v>
+      </c>
       <c r="B212" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="213" spans="2:8">
+    <row r="213" spans="1:8">
+      <c r="A213" t="n">
+        <v>212</v>
+      </c>
       <c r="B213" t="s">
         <v>224</v>
       </c>
@@ -3328,37 +4147,58 @@
         <v>225</v>
       </c>
     </row>
-    <row r="214" spans="2:2">
+    <row r="214" spans="1:2">
+      <c r="A214" t="n">
+        <v>213</v>
+      </c>
       <c r="B214" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="215" spans="2:2">
+    <row r="215" spans="1:2">
+      <c r="A215" t="n">
+        <v>214</v>
+      </c>
       <c r="B215" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="216" spans="2:2">
+    <row r="216" spans="1:2">
+      <c r="A216" t="n">
+        <v>215</v>
+      </c>
       <c r="B216" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="217" spans="2:2">
+    <row r="217" spans="1:2">
+      <c r="A217" t="n">
+        <v>216</v>
+      </c>
       <c r="B217" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="218" spans="2:2">
+    <row r="218" spans="1:2">
+      <c r="A218" t="n">
+        <v>217</v>
+      </c>
       <c r="B218" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="219" spans="2:2">
+    <row r="219" spans="1:2">
+      <c r="A219" t="n">
+        <v>218</v>
+      </c>
       <c r="B219" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="220" spans="2:8">
+    <row r="220" spans="1:8">
+      <c r="A220" t="n">
+        <v>219</v>
+      </c>
       <c r="B220" t="s">
         <v>232</v>
       </c>
@@ -3366,17 +4206,26 @@
         <v>233</v>
       </c>
     </row>
-    <row r="221" spans="2:2">
+    <row r="221" spans="1:2">
+      <c r="A221" t="n">
+        <v>220</v>
+      </c>
       <c r="B221" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="222" spans="2:2">
+    <row r="222" spans="1:2">
+      <c r="A222" t="n">
+        <v>221</v>
+      </c>
       <c r="B222" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="223" spans="2:8">
+    <row r="223" spans="1:8">
+      <c r="A223" t="n">
+        <v>222</v>
+      </c>
       <c r="B223" t="s">
         <v>235</v>
       </c>
@@ -3384,26 +4233,1448 @@
         <v>236</v>
       </c>
     </row>
-    <row r="224" spans="2:2">
+    <row r="224" spans="1:2">
+      <c r="A224" t="n">
+        <v>223</v>
+      </c>
       <c r="B224" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="225" spans="2:2">
+    <row r="225" spans="1:2">
+      <c r="A225" t="n">
+        <v>224</v>
+      </c>
       <c r="B225" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="226" spans="2:2">
+    <row r="226" spans="1:2">
+      <c r="A226" t="n">
+        <v>225</v>
+      </c>
       <c r="B226" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>240</v>
+      </c>
+      <c r="H227" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>242</v>
+      </c>
+      <c r="H229" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>247</v>
+      </c>
+      <c r="H233" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>250</v>
+      </c>
+      <c r="H235" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>253</v>
+      </c>
+      <c r="H237" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>264</v>
+      </c>
+      <c r="H247" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>271</v>
+      </c>
+      <c r="H253" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>274</v>
+      </c>
+      <c r="H255" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>278</v>
+      </c>
+      <c r="H258" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>281</v>
+      </c>
+      <c r="H260" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>284</v>
+      </c>
+      <c r="H262" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>288</v>
+      </c>
+      <c r="H265" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>291</v>
+      </c>
+      <c r="H267" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>294</v>
+      </c>
+      <c r="H270" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>214</v>
+      </c>
+      <c r="H275" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>310</v>
+      </c>
+      <c r="H288" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>320</v>
+      </c>
+      <c r="H297" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>325</v>
+      </c>
+      <c r="H301" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="n">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="n">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="307" spans="2:8">
+      <c r="B307" t="s">
+        <v>232</v>
+      </c>
+      <c r="H307" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2">
+      <c r="B308" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2">
+      <c r="B310" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2">
+      <c r="B311" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="312" spans="2:8">
+      <c r="B312" t="s">
+        <v>337</v>
+      </c>
+      <c r="H312" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2">
+      <c r="B313" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2">
+      <c r="B317" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="318" spans="2:8">
+      <c r="B318" t="s">
+        <v>344</v>
+      </c>
+      <c r="H318" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2">
+      <c r="B319" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2">
+      <c r="B320" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2">
+      <c r="B321" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2">
+      <c r="B322" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2">
+      <c r="B323" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2">
+      <c r="B324" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2">
+      <c r="B325" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="326" spans="2:8">
+      <c r="B326" t="s">
+        <v>352</v>
+      </c>
+      <c r="H326" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2">
+      <c r="B327" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2">
+      <c r="B328" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2">
+      <c r="B329" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2">
+      <c r="B330" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="331" spans="2:8">
+      <c r="B331" t="s">
+        <v>356</v>
+      </c>
+      <c r="H331" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2">
+      <c r="B332" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2">
+      <c r="B333" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2">
+      <c r="B334" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2">
+      <c r="B335" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="336" spans="2:8">
+      <c r="B336" t="s">
+        <v>223</v>
+      </c>
+      <c r="H336" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2">
+      <c r="B337" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2">
+      <c r="B338" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2">
+      <c r="B339" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2">
+      <c r="B340" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2">
+      <c r="B341" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2">
+      <c r="B342" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2">
+      <c r="B343" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2">
+      <c r="B344" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="345" spans="2:8">
+      <c r="B345" t="s">
+        <v>371</v>
+      </c>
+      <c r="H345" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2">
+      <c r="B346" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2">
+      <c r="B347" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2">
+      <c r="B348" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2">
+      <c r="B349" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2">
+      <c r="B350" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2">
+      <c r="B351" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2">
+      <c r="B352" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2">
+      <c r="B353" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="354" spans="2:8">
+      <c r="B354" t="s">
+        <v>381</v>
+      </c>
+      <c r="H354" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2">
+      <c r="B355" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2">
+      <c r="B356" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2">
+      <c r="B357" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2">
+      <c r="B358" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2">
+      <c r="B359" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2">
+      <c r="B360" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2">
+      <c r="B361" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2">
+      <c r="B362" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="363" spans="8:8">
+      <c r="H363" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="364" spans="8:8">
+      <c r="H364" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="365" spans="8:8">
+      <c r="H365" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="366" spans="8:8">
+      <c r="H366" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="367" spans="8:8">
+      <c r="H367" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="368" spans="8:8">
+      <c r="H368" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="369" spans="8:8">
+      <c r="H369" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="370" spans="8:8">
+      <c r="H370" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="371" spans="8:8">
+      <c r="H371" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="372" spans="8:8">
+      <c r="H372" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="373" spans="8:8">
+      <c r="H373" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="374" spans="8:8">
+      <c r="H374" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="375" spans="8:8">
+      <c r="H375" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="376" spans="8:8">
+      <c r="H376" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="377" spans="8:8">
+      <c r="H377" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="378" spans="8:8">
+      <c r="H378" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="379" spans="8:8">
+      <c r="H379" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="380" spans="8:8">
+      <c r="H380" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="381" spans="8:8">
+      <c r="H381" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="382" spans="8:8">
+      <c r="H382" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="383" spans="8:8">
+      <c r="H383" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="384" spans="8:8">
+      <c r="H384" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="385" spans="8:8">
+      <c r="H385" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="386" spans="8:8">
+      <c r="H386" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="387" spans="8:8">
+      <c r="H387" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="388" spans="8:8">
+      <c r="H388" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="389" spans="8:8">
+      <c r="H389" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="390" spans="8:8">
+      <c r="H390" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="391" spans="8:8">
+      <c r="H391" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="392" spans="8:8">
+      <c r="H392" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="393" spans="8:8">
+      <c r="H393" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="394" spans="8:8">
+      <c r="H394" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="395" spans="8:8">
+      <c r="H395" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="396" spans="8:8">
+      <c r="H396" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="397" spans="8:8">
+      <c r="H397" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="398" spans="8:8">
+      <c r="H398" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="399" spans="8:8">
+      <c r="H399" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="400" spans="8:8">
+      <c r="H400" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="401" spans="8:8">
+      <c r="H401" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="402" spans="8:8">
+      <c r="H402" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="403" spans="8:8">
+      <c r="H403" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="404" spans="8:8">
+      <c r="H404" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="405" spans="8:8">
+      <c r="H405" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="406" spans="8:8">
+      <c r="H406" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="407" spans="8:8">
+      <c r="H407" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="408" spans="8:8">
+      <c r="H408" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="409" spans="8:8">
+      <c r="H409" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="410" spans="8:8">
+      <c r="H410" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="411" spans="8:8">
+      <c r="H411" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="412" spans="8:8">
+      <c r="H412" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="413" spans="8:8">
+      <c r="H413" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="414" spans="8:8">
+      <c r="H414" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="415" spans="8:8">
+      <c r="H415" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="416" spans="8:8">
+      <c r="H416" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="417" spans="8:8">
+      <c r="H417" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="418" spans="8:8">
+      <c r="H418" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="419" spans="8:8">
+      <c r="H419" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="420" spans="8:8">
+      <c r="H420" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="421" spans="8:8">
+      <c r="H421" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="422" spans="8:8">
+      <c r="H422" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="423" spans="8:8">
+      <c r="H423" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="424" spans="8:8">
+      <c r="H424" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="425" spans="8:8">
+      <c r="H425" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="426" spans="8:8">
+      <c r="H426" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="427" spans="8:8">
+      <c r="H427" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="428" spans="8:8">
+      <c r="H428" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="429" spans="8:8">
+      <c r="H429" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="430" spans="8:8">
+      <c r="H430" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="431" spans="8:8">
+      <c r="H431" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="432" spans="8:8">
+      <c r="H432" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="433" spans="8:8">
+      <c r="H433" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="434" spans="8:8">
+      <c r="H434" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="435" spans="8:8">
+      <c r="H435" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="436" spans="8:8">
+      <c r="H436" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="437" spans="8:8">
+      <c r="H437" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="438" spans="8:8">
+      <c r="H438" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="439" spans="8:8">
+      <c r="H439" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="440" spans="8:8">
+      <c r="H440" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="441" spans="8:8">
+      <c r="H441" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="442" spans="8:8">
+      <c r="H442" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="443" spans="8:8">
+      <c r="H443" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="444" spans="8:8">
+      <c r="H444" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="445" spans="8:8">
+      <c r="H445" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1719076115" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1719085769" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3412,16 +5683,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1719076115" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1719076115" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1719076115" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1719076115" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1719085769" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1719085769" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1719085769" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1719085769" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1719076115" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1719085769" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/The Rurik Empire/docs/regions.xlsx
+++ b/The Rurik Empire/docs/regions.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1719085769" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1719085769" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1719085769" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1719085769"/>
+      <pm:revision xmlns:pm="smNativeData" day="1719123436" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1719123436" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1719123436" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1719123436"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="492">
   <si>
     <t>id</t>
   </si>
@@ -1195,19 +1195,79 @@
     <t>Мэн</t>
   </si>
   <si>
+    <t>Иньчуань</t>
+  </si>
+  <si>
     <t>Империя Си Ся</t>
   </si>
   <si>
+    <t>Цзинань</t>
+  </si>
+  <si>
+    <t>Сиань</t>
+  </si>
+  <si>
+    <t>Кайфын</t>
+  </si>
+  <si>
     <t>Полоцкое Княжество</t>
   </si>
   <si>
+    <t>Герцике</t>
+  </si>
+  <si>
+    <t>Борисов</t>
+  </si>
+  <si>
+    <t>Друцк</t>
+  </si>
+  <si>
+    <t>Прилуки</t>
+  </si>
+  <si>
     <t>Переяславское Княжество</t>
   </si>
   <si>
+    <t>Лубно</t>
+  </si>
+  <si>
+    <t>Лукомль</t>
+  </si>
+  <si>
+    <t>Меценск</t>
+  </si>
+  <si>
     <t>Черниговское Княжество</t>
   </si>
   <si>
+    <t>Стародуб</t>
+  </si>
+  <si>
+    <t>Рыльск</t>
+  </si>
+  <si>
+    <t>Рогачев</t>
+  </si>
+  <si>
+    <t>Гомель</t>
+  </si>
+  <si>
+    <t>Кромы</t>
+  </si>
+  <si>
+    <t>Путивль</t>
+  </si>
+  <si>
     <t>Новгород-Северское Княжество</t>
+  </si>
+  <si>
+    <t>Севск</t>
+  </si>
+  <si>
+    <t>Глухов</t>
+  </si>
+  <si>
+    <t>Ольгов</t>
   </si>
   <si>
     <t>Империя Цзинь</t>
@@ -1465,7 +1525,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719085769" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1719123436" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1481,7 +1541,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719085769" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1719123436" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1503,7 +1563,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1719085769" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1719123436" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1525,7 +1585,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1719085769"/>
+          <pm:border xmlns:pm="smNativeData" id="1719123436"/>
         </ext>
       </extLst>
     </border>
@@ -1544,7 +1604,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1719085769"/>
+          <pm:border xmlns:pm="smNativeData" id="1719123436"/>
         </ext>
       </extLst>
     </border>
@@ -1562,7 +1622,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1719085769" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1719123436" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -1826,10 +1886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H445"/>
+  <dimension ref="A1:H461"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="B363" sqref="B363"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A349" workbookViewId="0">
+      <selection activeCell="B384" sqref="B384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -5255,426 +5315,521 @@
         <v>389</v>
       </c>
     </row>
-    <row r="363" spans="8:8">
+    <row r="363" spans="2:8">
+      <c r="B363" t="s">
+        <v>390</v>
+      </c>
       <c r="H363" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="364" spans="8:8">
-      <c r="H364" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="365" spans="8:8">
-      <c r="H365" t="s">
+    <row r="364" spans="2:2">
+      <c r="B364" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="366" spans="8:8">
-      <c r="H366" t="s">
+    <row r="365" spans="2:2">
+      <c r="B365" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="367" spans="8:8">
+    <row r="366" spans="2:2">
+      <c r="B366" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="367" spans="2:8">
+      <c r="B367" t="s">
+        <v>13</v>
+      </c>
       <c r="H367" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="368" spans="8:8">
-      <c r="H368" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="369" spans="8:8">
-      <c r="H369" t="s">
+    <row r="368" spans="2:2">
+      <c r="B368" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="370" spans="8:8">
-      <c r="H370" t="s">
+    <row r="369" spans="2:2">
+      <c r="B369" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="371" spans="8:8">
+    <row r="370" spans="2:2">
+      <c r="B370" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="371" spans="2:8">
+      <c r="B371" t="s">
+        <v>399</v>
+      </c>
       <c r="H371" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="372" spans="8:8">
-      <c r="H372" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="373" spans="8:8">
-      <c r="H373" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="374" spans="8:8">
+    <row r="372" spans="2:2">
+      <c r="B372" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2">
+      <c r="B373" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="374" spans="2:8">
+      <c r="B374" t="s">
+        <v>403</v>
+      </c>
       <c r="H374" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="375" spans="8:8">
-      <c r="H375" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="376" spans="8:8">
-      <c r="H376" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="377" spans="8:8">
-      <c r="H377" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="378" spans="8:8">
-      <c r="H378" t="s">
+    <row r="375" spans="2:2">
+      <c r="B375" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="379" spans="8:8">
-      <c r="H379" t="s">
+    <row r="376" spans="2:2">
+      <c r="B376" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="380" spans="8:8">
+    <row r="377" spans="2:2">
+      <c r="B377" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2">
+      <c r="B378" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2">
+      <c r="B379" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="380" spans="2:8">
+      <c r="B380" t="s">
+        <v>410</v>
+      </c>
       <c r="H380" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="381" spans="8:8">
-      <c r="H381" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="382" spans="8:8">
-      <c r="H382" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="383" spans="8:8">
-      <c r="H383" t="s">
-        <v>410</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2">
+      <c r="B381" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2">
+      <c r="B382" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2">
+      <c r="B383" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="384" spans="8:8">
       <c r="H384" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="385" spans="8:8">
       <c r="H385" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="386" spans="8:8">
       <c r="H386" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="387" spans="8:8">
       <c r="H387" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="388" spans="8:8">
       <c r="H388" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="389" spans="8:8">
       <c r="H389" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="390" spans="8:8">
       <c r="H390" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="391" spans="8:8">
       <c r="H391" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="392" spans="8:8">
       <c r="H392" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="393" spans="8:8">
       <c r="H393" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="394" spans="8:8">
       <c r="H394" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="395" spans="8:8">
       <c r="H395" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="396" spans="8:8">
       <c r="H396" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="397" spans="8:8">
       <c r="H397" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="398" spans="8:8">
       <c r="H398" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="399" spans="8:8">
       <c r="H399" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="400" spans="8:8">
       <c r="H400" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="401" spans="8:8">
       <c r="H401" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="402" spans="8:8">
       <c r="H402" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="403" spans="8:8">
       <c r="H403" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="404" spans="8:8">
       <c r="H404" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="405" spans="8:8">
       <c r="H405" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="406" spans="8:8">
       <c r="H406" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="407" spans="8:8">
       <c r="H407" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="408" spans="8:8">
       <c r="H408" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="409" spans="8:8">
       <c r="H409" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="410" spans="8:8">
       <c r="H410" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="411" spans="8:8">
       <c r="H411" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="412" spans="8:8">
       <c r="H412" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="413" spans="8:8">
       <c r="H413" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="414" spans="8:8">
       <c r="H414" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="415" spans="8:8">
       <c r="H415" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="416" spans="8:8">
       <c r="H416" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="417" spans="8:8">
       <c r="H417" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="418" spans="8:8">
       <c r="H418" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="419" spans="8:8">
       <c r="H419" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="420" spans="8:8">
       <c r="H420" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="421" spans="8:8">
       <c r="H421" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="422" spans="8:8">
       <c r="H422" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="423" spans="8:8">
       <c r="H423" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="424" spans="8:8">
       <c r="H424" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="425" spans="8:8">
       <c r="H425" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="426" spans="8:8">
       <c r="H426" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="427" spans="8:8">
       <c r="H427" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="428" spans="8:8">
       <c r="H428" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="429" spans="8:8">
       <c r="H429" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="430" spans="8:8">
       <c r="H430" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="431" spans="8:8">
       <c r="H431" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="432" spans="8:8">
       <c r="H432" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="433" spans="8:8">
       <c r="H433" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="434" spans="8:8">
       <c r="H434" t="s">
-        <v>303</v>
+        <v>465</v>
       </c>
     </row>
     <row r="435" spans="8:8">
       <c r="H435" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="436" spans="8:8">
       <c r="H436" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="437" spans="8:8">
       <c r="H437" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="438" spans="8:8">
       <c r="H438" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="439" spans="8:8">
       <c r="H439" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="440" spans="8:8">
       <c r="H440" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="441" spans="8:8">
       <c r="H441" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="442" spans="8:8">
       <c r="H442" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="443" spans="8:8">
       <c r="H443" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="444" spans="8:8">
       <c r="H444" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="445" spans="8:8">
       <c r="H445" t="s">
-        <v>471</v>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="446" spans="8:8">
+      <c r="H446" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="447" spans="8:8">
+      <c r="H447" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="448" spans="8:8">
+      <c r="H448" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="449" spans="8:8">
+      <c r="H449" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="450" spans="8:8">
+      <c r="H450" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="451" spans="8:8">
+      <c r="H451" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="452" spans="8:8">
+      <c r="H452" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="453" spans="8:8">
+      <c r="H453" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="454" spans="8:8">
+      <c r="H454" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="455" spans="8:8">
+      <c r="H455" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="456" spans="8:8">
+      <c r="H456" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="457" spans="8:8">
+      <c r="H457" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="458" spans="8:8">
+      <c r="H458" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="459" spans="8:8">
+      <c r="H459" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="460" spans="8:8">
+      <c r="H460" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="461" spans="8:8">
+      <c r="H461" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1719085769" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1719123436" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5683,16 +5838,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1719085769" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1719085769" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1719085769" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1719085769" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1719123436" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1719123436" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1719123436" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1719123436" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1719085769" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1719123436" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/The Rurik Empire/docs/regions.xlsx
+++ b/The Rurik Empire/docs/regions.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1719123436" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1719123436" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1719123436" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1719123436"/>
+      <pm:revision xmlns:pm="smNativeData" day="1719129648" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1719129648" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1719129648" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1719129648"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="520">
   <si>
     <t>id</t>
   </si>
@@ -67,7 +67,7 @@
     <t>Полоцк</t>
   </si>
   <si>
-    <t>Смоленнск</t>
+    <t>Смоленск</t>
   </si>
   <si>
     <t>Брянск</t>
@@ -1270,25 +1270,109 @@
     <t>Ольгов</t>
   </si>
   <si>
+    <t>Хуэйнинфу</t>
+  </si>
+  <si>
     <t>Империя Цзинь</t>
   </si>
   <si>
+    <t>Чжунду</t>
+  </si>
+  <si>
+    <t>Хуинин</t>
+  </si>
+  <si>
+    <t>Дадин</t>
+  </si>
+  <si>
+    <t>Изяславль</t>
+  </si>
+  <si>
     <t>Минское Княжество</t>
   </si>
   <si>
+    <t>Копысь</t>
+  </si>
+  <si>
+    <t>Логойск</t>
+  </si>
+  <si>
+    <t>Баласагун</t>
+  </si>
+  <si>
     <t>Каракитайское Ханство</t>
   </si>
   <si>
+    <t>Самарканд</t>
+  </si>
+  <si>
+    <t>Бухара</t>
+  </si>
+  <si>
+    <t>Ташкент</t>
+  </si>
+  <si>
+    <t>Отрар</t>
+  </si>
+  <si>
     <t>Кыпчакское Ханство</t>
   </si>
   <si>
+    <t>Сарай-Берке</t>
+  </si>
+  <si>
+    <t>Азак</t>
+  </si>
+  <si>
+    <t>Гюлистан</t>
+  </si>
+  <si>
+    <t>Булгар</t>
+  </si>
+  <si>
+    <t>Хорезм</t>
+  </si>
+  <si>
+    <t>Мохши</t>
+  </si>
+  <si>
+    <t>Новый-Сарай</t>
+  </si>
+  <si>
+    <t>Ростиславль</t>
+  </si>
+  <si>
     <t>Смоленское Княжество</t>
   </si>
   <si>
+    <t>Клин</t>
+  </si>
+  <si>
+    <t>Мстиславль</t>
+  </si>
+  <si>
+    <t>Борисов-Глебов</t>
+  </si>
+  <si>
     <t>Рязанское Княжество</t>
   </si>
   <si>
+    <t>Венев</t>
+  </si>
+  <si>
+    <t>Верея</t>
+  </si>
+  <si>
+    <t>Дубок</t>
+  </si>
+  <si>
+    <t>Порхов</t>
+  </si>
+  <si>
     <t>Новгородская Республика</t>
+  </si>
+  <si>
+    <t>Остров</t>
   </si>
   <si>
     <t>Графство Португалия</t>
@@ -1525,7 +1609,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719123436" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1719129648" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1541,7 +1625,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719123436" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1719129648" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1563,7 +1647,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1719123436" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1719129648" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1585,7 +1669,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1719123436"/>
+          <pm:border xmlns:pm="smNativeData" id="1719129648"/>
         </ext>
       </extLst>
     </border>
@@ -1604,7 +1688,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1719123436"/>
+          <pm:border xmlns:pm="smNativeData" id="1719129648"/>
         </ext>
       </extLst>
     </border>
@@ -1622,7 +1706,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1719123436" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1719129648" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -1886,10 +1970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H461"/>
+  <dimension ref="A1:H483"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A349" workbookViewId="0">
-      <selection activeCell="B384" sqref="B384"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="B413" sqref="B413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -5011,7 +5095,10 @@
         <v>331</v>
       </c>
     </row>
-    <row r="307" spans="2:8">
+    <row r="307" spans="1:8">
+      <c r="A307" t="n">
+        <v>306</v>
+      </c>
       <c r="B307" t="s">
         <v>232</v>
       </c>
@@ -5019,27 +5106,42 @@
         <v>332</v>
       </c>
     </row>
-    <row r="308" spans="2:2">
+    <row r="308" spans="1:2">
+      <c r="A308" t="n">
+        <v>307</v>
+      </c>
       <c r="B308" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="309" spans="2:2">
+    <row r="309" spans="1:2">
+      <c r="A309" t="n">
+        <v>308</v>
+      </c>
       <c r="B309" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="310" spans="2:2">
+    <row r="310" spans="1:2">
+      <c r="A310" t="n">
+        <v>309</v>
+      </c>
       <c r="B310" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="311" spans="2:2">
+    <row r="311" spans="1:2">
+      <c r="A311" t="n">
+        <v>310</v>
+      </c>
       <c r="B311" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="312" spans="2:8">
+    <row r="312" spans="1:8">
+      <c r="A312" t="n">
+        <v>311</v>
+      </c>
       <c r="B312" t="s">
         <v>337</v>
       </c>
@@ -5047,32 +5149,50 @@
         <v>338</v>
       </c>
     </row>
-    <row r="313" spans="2:2">
+    <row r="313" spans="1:2">
+      <c r="A313" t="n">
+        <v>312</v>
+      </c>
       <c r="B313" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="314" spans="2:2">
+    <row r="314" spans="1:2">
+      <c r="A314" t="n">
+        <v>313</v>
+      </c>
       <c r="B314" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="315" spans="2:2">
+    <row r="315" spans="1:2">
+      <c r="A315" t="n">
+        <v>314</v>
+      </c>
       <c r="B315" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="316" spans="2:2">
+    <row r="316" spans="1:2">
+      <c r="A316" t="n">
+        <v>315</v>
+      </c>
       <c r="B316" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="317" spans="2:2">
+    <row r="317" spans="1:2">
+      <c r="A317" t="n">
+        <v>316</v>
+      </c>
       <c r="B317" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="318" spans="2:8">
+    <row r="318" spans="1:8">
+      <c r="A318" t="n">
+        <v>317</v>
+      </c>
       <c r="B318" t="s">
         <v>344</v>
       </c>
@@ -5080,42 +5200,66 @@
         <v>345</v>
       </c>
     </row>
-    <row r="319" spans="2:2">
+    <row r="319" spans="1:2">
+      <c r="A319" t="n">
+        <v>318</v>
+      </c>
       <c r="B319" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="320" spans="2:2">
+    <row r="320" spans="1:2">
+      <c r="A320" t="n">
+        <v>319</v>
+      </c>
       <c r="B320" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="321" spans="2:2">
+    <row r="321" spans="1:2">
+      <c r="A321" t="n">
+        <v>320</v>
+      </c>
       <c r="B321" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="322" spans="2:2">
+    <row r="322" spans="1:2">
+      <c r="A322" t="n">
+        <v>321</v>
+      </c>
       <c r="B322" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="323" spans="2:2">
+    <row r="323" spans="1:2">
+      <c r="A323" t="n">
+        <v>322</v>
+      </c>
       <c r="B323" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="324" spans="2:2">
+    <row r="324" spans="1:2">
+      <c r="A324" t="n">
+        <v>323</v>
+      </c>
       <c r="B324" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="325" spans="2:2">
+    <row r="325" spans="1:2">
+      <c r="A325" t="n">
+        <v>324</v>
+      </c>
       <c r="B325" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="326" spans="2:8">
+    <row r="326" spans="1:8">
+      <c r="A326" t="n">
+        <v>325</v>
+      </c>
       <c r="B326" t="s">
         <v>352</v>
       </c>
@@ -5123,27 +5267,42 @@
         <v>353</v>
       </c>
     </row>
-    <row r="327" spans="2:2">
+    <row r="327" spans="1:2">
+      <c r="A327" t="n">
+        <v>326</v>
+      </c>
       <c r="B327" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="328" spans="2:2">
+    <row r="328" spans="1:2">
+      <c r="A328" t="n">
+        <v>327</v>
+      </c>
       <c r="B328" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="329" spans="2:2">
+    <row r="329" spans="1:2">
+      <c r="A329" t="n">
+        <v>328</v>
+      </c>
       <c r="B329" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="330" spans="2:2">
+    <row r="330" spans="1:2">
+      <c r="A330" t="n">
+        <v>329</v>
+      </c>
       <c r="B330" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="331" spans="2:8">
+    <row r="331" spans="1:8">
+      <c r="A331" t="n">
+        <v>330</v>
+      </c>
       <c r="B331" t="s">
         <v>356</v>
       </c>
@@ -5151,27 +5310,42 @@
         <v>357</v>
       </c>
     </row>
-    <row r="332" spans="2:2">
+    <row r="332" spans="1:2">
+      <c r="A332" t="n">
+        <v>331</v>
+      </c>
       <c r="B332" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="333" spans="2:2">
+    <row r="333" spans="1:2">
+      <c r="A333" t="n">
+        <v>332</v>
+      </c>
       <c r="B333" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="334" spans="2:2">
+    <row r="334" spans="1:2">
+      <c r="A334" t="n">
+        <v>333</v>
+      </c>
       <c r="B334" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="335" spans="2:2">
+    <row r="335" spans="1:2">
+      <c r="A335" t="n">
+        <v>334</v>
+      </c>
       <c r="B335" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="336" spans="2:8">
+    <row r="336" spans="1:8">
+      <c r="A336" t="n">
+        <v>335</v>
+      </c>
       <c r="B336" t="s">
         <v>223</v>
       </c>
@@ -5179,47 +5353,74 @@
         <v>362</v>
       </c>
     </row>
-    <row r="337" spans="2:2">
+    <row r="337" spans="1:2">
+      <c r="A337" t="n">
+        <v>336</v>
+      </c>
       <c r="B337" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="338" spans="2:2">
+    <row r="338" spans="1:2">
+      <c r="A338" t="n">
+        <v>337</v>
+      </c>
       <c r="B338" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="339" spans="2:2">
+    <row r="339" spans="1:2">
+      <c r="A339" t="n">
+        <v>338</v>
+      </c>
       <c r="B339" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="340" spans="2:2">
+    <row r="340" spans="1:2">
+      <c r="A340" t="n">
+        <v>339</v>
+      </c>
       <c r="B340" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="341" spans="2:2">
+    <row r="341" spans="1:2">
+      <c r="A341" t="n">
+        <v>340</v>
+      </c>
       <c r="B341" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="342" spans="2:2">
+    <row r="342" spans="1:2">
+      <c r="A342" t="n">
+        <v>341</v>
+      </c>
       <c r="B342" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="343" spans="2:2">
+    <row r="343" spans="1:2">
+      <c r="A343" t="n">
+        <v>342</v>
+      </c>
       <c r="B343" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="344" spans="2:2">
+    <row r="344" spans="1:2">
+      <c r="A344" t="n">
+        <v>343</v>
+      </c>
       <c r="B344" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="345" spans="2:8">
+    <row r="345" spans="1:8">
+      <c r="A345" t="n">
+        <v>344</v>
+      </c>
       <c r="B345" t="s">
         <v>371</v>
       </c>
@@ -5227,47 +5428,74 @@
         <v>372</v>
       </c>
     </row>
-    <row r="346" spans="2:2">
+    <row r="346" spans="1:2">
+      <c r="A346" t="n">
+        <v>345</v>
+      </c>
       <c r="B346" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="347" spans="2:2">
+    <row r="347" spans="1:2">
+      <c r="A347" t="n">
+        <v>346</v>
+      </c>
       <c r="B347" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="348" spans="2:2">
+    <row r="348" spans="1:2">
+      <c r="A348" t="n">
+        <v>347</v>
+      </c>
       <c r="B348" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="349" spans="2:2">
+    <row r="349" spans="1:2">
+      <c r="A349" t="n">
+        <v>348</v>
+      </c>
       <c r="B349" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="350" spans="2:2">
+    <row r="350" spans="1:2">
+      <c r="A350" t="n">
+        <v>349</v>
+      </c>
       <c r="B350" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="351" spans="2:2">
+    <row r="351" spans="1:2">
+      <c r="A351" t="n">
+        <v>350</v>
+      </c>
       <c r="B351" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="352" spans="2:2">
+    <row r="352" spans="1:2">
+      <c r="A352" t="n">
+        <v>351</v>
+      </c>
       <c r="B352" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="353" spans="2:2">
+    <row r="353" spans="1:2">
+      <c r="A353" t="n">
+        <v>352</v>
+      </c>
       <c r="B353" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="354" spans="2:8">
+    <row r="354" spans="1:8">
+      <c r="A354" t="n">
+        <v>353</v>
+      </c>
       <c r="B354" t="s">
         <v>381</v>
       </c>
@@ -5275,47 +5503,74 @@
         <v>382</v>
       </c>
     </row>
-    <row r="355" spans="2:2">
+    <row r="355" spans="1:2">
+      <c r="A355" t="n">
+        <v>354</v>
+      </c>
       <c r="B355" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="356" spans="2:2">
+    <row r="356" spans="1:2">
+      <c r="A356" t="n">
+        <v>355</v>
+      </c>
       <c r="B356" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="357" spans="2:2">
+    <row r="357" spans="1:2">
+      <c r="A357" t="n">
+        <v>356</v>
+      </c>
       <c r="B357" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="358" spans="2:2">
+    <row r="358" spans="1:2">
+      <c r="A358" t="n">
+        <v>357</v>
+      </c>
       <c r="B358" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="359" spans="2:2">
+    <row r="359" spans="1:2">
+      <c r="A359" t="n">
+        <v>358</v>
+      </c>
       <c r="B359" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="360" spans="2:2">
+    <row r="360" spans="1:2">
+      <c r="A360" t="n">
+        <v>359</v>
+      </c>
       <c r="B360" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="361" spans="2:2">
+    <row r="361" spans="1:2">
+      <c r="A361" t="n">
+        <v>360</v>
+      </c>
       <c r="B361" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="362" spans="2:2">
+    <row r="362" spans="1:2">
+      <c r="A362" t="n">
+        <v>361</v>
+      </c>
       <c r="B362" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="363" spans="2:8">
+    <row r="363" spans="1:8">
+      <c r="A363" t="n">
+        <v>362</v>
+      </c>
       <c r="B363" t="s">
         <v>390</v>
       </c>
@@ -5323,22 +5578,34 @@
         <v>391</v>
       </c>
     </row>
-    <row r="364" spans="2:2">
+    <row r="364" spans="1:2">
+      <c r="A364" t="n">
+        <v>363</v>
+      </c>
       <c r="B364" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="365" spans="2:2">
+    <row r="365" spans="1:2">
+      <c r="A365" t="n">
+        <v>364</v>
+      </c>
       <c r="B365" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="366" spans="2:2">
+    <row r="366" spans="1:2">
+      <c r="A366" t="n">
+        <v>365</v>
+      </c>
       <c r="B366" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="367" spans="2:8">
+    <row r="367" spans="1:8">
+      <c r="A367" t="n">
+        <v>366</v>
+      </c>
       <c r="B367" t="s">
         <v>13</v>
       </c>
@@ -5346,22 +5613,34 @@
         <v>395</v>
       </c>
     </row>
-    <row r="368" spans="2:2">
+    <row r="368" spans="1:2">
+      <c r="A368" t="n">
+        <v>367</v>
+      </c>
       <c r="B368" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="369" spans="2:2">
+    <row r="369" spans="1:2">
+      <c r="A369" t="n">
+        <v>368</v>
+      </c>
       <c r="B369" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="370" spans="2:2">
+    <row r="370" spans="1:2">
+      <c r="A370" t="n">
+        <v>369</v>
+      </c>
       <c r="B370" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="371" spans="2:8">
+    <row r="371" spans="1:8">
+      <c r="A371" t="n">
+        <v>370</v>
+      </c>
       <c r="B371" t="s">
         <v>399</v>
       </c>
@@ -5369,17 +5648,26 @@
         <v>400</v>
       </c>
     </row>
-    <row r="372" spans="2:2">
+    <row r="372" spans="1:2">
+      <c r="A372" t="n">
+        <v>371</v>
+      </c>
       <c r="B372" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="373" spans="2:2">
+    <row r="373" spans="1:2">
+      <c r="A373" t="n">
+        <v>372</v>
+      </c>
       <c r="B373" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="374" spans="2:8">
+    <row r="374" spans="1:8">
+      <c r="A374" t="n">
+        <v>373</v>
+      </c>
       <c r="B374" t="s">
         <v>403</v>
       </c>
@@ -5387,32 +5675,50 @@
         <v>404</v>
       </c>
     </row>
-    <row r="375" spans="2:2">
+    <row r="375" spans="1:2">
+      <c r="A375" t="n">
+        <v>374</v>
+      </c>
       <c r="B375" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="376" spans="2:2">
+    <row r="376" spans="1:2">
+      <c r="A376" t="n">
+        <v>375</v>
+      </c>
       <c r="B376" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="377" spans="2:2">
+    <row r="377" spans="1:2">
+      <c r="A377" t="n">
+        <v>376</v>
+      </c>
       <c r="B377" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="378" spans="2:2">
+    <row r="378" spans="1:2">
+      <c r="A378" t="n">
+        <v>377</v>
+      </c>
       <c r="B378" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="379" spans="2:2">
+    <row r="379" spans="1:2">
+      <c r="A379" t="n">
+        <v>378</v>
+      </c>
       <c r="B379" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="380" spans="2:8">
+    <row r="380" spans="1:8">
+      <c r="A380" t="n">
+        <v>379</v>
+      </c>
       <c r="B380" t="s">
         <v>410</v>
       </c>
@@ -5420,416 +5726,613 @@
         <v>411</v>
       </c>
     </row>
-    <row r="381" spans="2:2">
+    <row r="381" spans="1:2">
+      <c r="A381" t="n">
+        <v>380</v>
+      </c>
       <c r="B381" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="382" spans="2:2">
+    <row r="382" spans="1:2">
+      <c r="A382" t="n">
+        <v>381</v>
+      </c>
       <c r="B382" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="383" spans="2:2">
+    <row r="383" spans="1:2">
+      <c r="A383" t="n">
+        <v>382</v>
+      </c>
       <c r="B383" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="384" spans="8:8">
+    <row r="384" spans="1:8">
+      <c r="A384" t="n">
+        <v>383</v>
+      </c>
+      <c r="B384" t="s">
+        <v>415</v>
+      </c>
       <c r="H384" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="385" spans="8:8">
-      <c r="H385" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="386" spans="8:8">
-      <c r="H386" t="s">
+    <row r="385" spans="1:2">
+      <c r="A385" t="n">
+        <v>384</v>
+      </c>
+      <c r="B385" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="387" spans="8:8">
-      <c r="H387" t="s">
+    <row r="386" spans="1:2">
+      <c r="A386" t="n">
+        <v>385</v>
+      </c>
+      <c r="B386" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="388" spans="8:8">
+    <row r="387" spans="1:2">
+      <c r="A387" t="n">
+        <v>386</v>
+      </c>
+      <c r="B387" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
+      <c r="A388" t="n">
+        <v>387</v>
+      </c>
+      <c r="B388" t="s">
+        <v>420</v>
+      </c>
       <c r="H388" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="389" spans="8:8">
-      <c r="H389" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="390" spans="8:8">
-      <c r="H390" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="391" spans="8:8">
+    <row r="389" spans="1:2">
+      <c r="A389" t="n">
+        <v>388</v>
+      </c>
+      <c r="B389" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" t="n">
+        <v>389</v>
+      </c>
+      <c r="B390" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8">
+      <c r="A391" t="n">
+        <v>390</v>
+      </c>
+      <c r="B391" t="s">
+        <v>424</v>
+      </c>
       <c r="H391" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="392" spans="8:8">
-      <c r="H392" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="393" spans="8:8">
-      <c r="H393" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="394" spans="8:8">
-      <c r="H394" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="395" spans="8:8">
+    <row r="392" spans="1:2">
+      <c r="A392" t="n">
+        <v>391</v>
+      </c>
+      <c r="B392" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" t="n">
+        <v>392</v>
+      </c>
+      <c r="B393" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" t="n">
+        <v>393</v>
+      </c>
+      <c r="B394" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8">
+      <c r="A395" t="n">
+        <v>394</v>
+      </c>
+      <c r="B395" t="s">
+        <v>429</v>
+      </c>
       <c r="H395" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="396" spans="8:8">
-      <c r="H396" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="397" spans="8:8">
-      <c r="H397" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="398" spans="8:8">
-      <c r="H398" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="399" spans="8:8">
-      <c r="H399" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="400" spans="8:8">
-      <c r="H400" t="s">
+    <row r="396" spans="1:2">
+      <c r="A396" t="n">
+        <v>395</v>
+      </c>
+      <c r="B396" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="401" spans="8:8">
-      <c r="H401" t="s">
+    <row r="397" spans="1:2">
+      <c r="A397" t="n">
+        <v>396</v>
+      </c>
+      <c r="B397" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="402" spans="8:8">
-      <c r="H402" t="s">
+    <row r="398" spans="1:2">
+      <c r="A398" t="n">
+        <v>397</v>
+      </c>
+      <c r="B398" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="403" spans="8:8">
+    <row r="399" spans="1:2">
+      <c r="A399" t="n">
+        <v>398</v>
+      </c>
+      <c r="B399" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" t="n">
+        <v>399</v>
+      </c>
+      <c r="B400" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" t="n">
+        <v>400</v>
+      </c>
+      <c r="B401" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" t="n">
+        <v>401</v>
+      </c>
+      <c r="B402" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="403" spans="2:8">
+      <c r="B403" t="s">
+        <v>438</v>
+      </c>
       <c r="H403" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="404" spans="8:8">
-      <c r="H404" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="405" spans="8:8">
-      <c r="H405" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="406" spans="8:8">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2">
+      <c r="B404" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2">
+      <c r="B405" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="406" spans="2:8">
+      <c r="B406" t="s">
+        <v>442</v>
+      </c>
       <c r="H406" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="407" spans="8:8">
-      <c r="H407" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="408" spans="8:8">
-      <c r="H408" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="409" spans="8:8">
-      <c r="H409" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="410" spans="8:8">
-      <c r="H410" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="411" spans="8:8">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2">
+      <c r="B407" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2">
+      <c r="B408" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2">
+      <c r="B409" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2">
+      <c r="B410" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="411" spans="2:8">
+      <c r="B411" t="s">
+        <v>447</v>
+      </c>
       <c r="H411" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="412" spans="8:8">
-      <c r="H412" t="s">
-        <v>443</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2">
+      <c r="B412" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="413" spans="8:8">
       <c r="H413" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="414" spans="8:8">
       <c r="H414" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="415" spans="8:8">
       <c r="H415" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="416" spans="8:8">
       <c r="H416" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="417" spans="8:8">
       <c r="H417" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="418" spans="8:8">
       <c r="H418" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row r="419" spans="8:8">
       <c r="H419" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="420" spans="8:8">
       <c r="H420" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
     <row r="421" spans="8:8">
       <c r="H421" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="422" spans="8:8">
       <c r="H422" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="423" spans="8:8">
       <c r="H423" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
     </row>
     <row r="424" spans="8:8">
       <c r="H424" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="425" spans="8:8">
       <c r="H425" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="426" spans="8:8">
       <c r="H426" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="427" spans="8:8">
       <c r="H427" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
     </row>
     <row r="428" spans="8:8">
       <c r="H428" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="429" spans="8:8">
       <c r="H429" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
     </row>
     <row r="430" spans="8:8">
       <c r="H430" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="431" spans="8:8">
       <c r="H431" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="432" spans="8:8">
       <c r="H432" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="433" spans="8:8">
       <c r="H433" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="434" spans="8:8">
       <c r="H434" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
     </row>
     <row r="435" spans="8:8">
       <c r="H435" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="436" spans="8:8">
       <c r="H436" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="437" spans="8:8">
       <c r="H437" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="438" spans="8:8">
       <c r="H438" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="439" spans="8:8">
       <c r="H439" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
     </row>
     <row r="440" spans="8:8">
       <c r="H440" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="441" spans="8:8">
       <c r="H441" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
     </row>
     <row r="442" spans="8:8">
       <c r="H442" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="443" spans="8:8">
       <c r="H443" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="444" spans="8:8">
       <c r="H444" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="445" spans="8:8">
       <c r="H445" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="446" spans="8:8">
       <c r="H446" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="447" spans="8:8">
       <c r="H447" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="448" spans="8:8">
       <c r="H448" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="449" spans="8:8">
       <c r="H449" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="450" spans="8:8">
       <c r="H450" t="s">
-        <v>303</v>
+        <v>487</v>
       </c>
     </row>
     <row r="451" spans="8:8">
       <c r="H451" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="452" spans="8:8">
       <c r="H452" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="453" spans="8:8">
       <c r="H453" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="454" spans="8:8">
       <c r="H454" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="455" spans="8:8">
       <c r="H455" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="456" spans="8:8">
       <c r="H456" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="457" spans="8:8">
       <c r="H457" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="458" spans="8:8">
       <c r="H458" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="459" spans="8:8">
       <c r="H459" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="460" spans="8:8">
       <c r="H460" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="461" spans="8:8">
       <c r="H461" t="s">
-        <v>491</v>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="462" spans="8:8">
+      <c r="H462" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="463" spans="8:8">
+      <c r="H463" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="464" spans="8:8">
+      <c r="H464" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="465" spans="8:8">
+      <c r="H465" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="466" spans="8:8">
+      <c r="H466" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="467" spans="8:8">
+      <c r="H467" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="468" spans="8:8">
+      <c r="H468" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="469" spans="8:8">
+      <c r="H469" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="470" spans="8:8">
+      <c r="H470" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="471" spans="8:8">
+      <c r="H471" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="472" spans="8:8">
+      <c r="H472" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="473" spans="8:8">
+      <c r="H473" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="474" spans="8:8">
+      <c r="H474" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="475" spans="8:8">
+      <c r="H475" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="476" spans="8:8">
+      <c r="H476" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="477" spans="8:8">
+      <c r="H477" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="478" spans="8:8">
+      <c r="H478" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="479" spans="8:8">
+      <c r="H479" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="480" spans="8:8">
+      <c r="H480" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="481" spans="8:8">
+      <c r="H481" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="482" spans="8:8">
+      <c r="H482" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="483" spans="8:8">
+      <c r="H483" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1719123436" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1719129648" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5838,16 +6341,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1719123436" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1719123436" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1719123436" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1719123436" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1719129648" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1719129648" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1719129648" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1719129648" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1719123436" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1719129648" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/The Rurik Empire/docs/regions.xlsx
+++ b/The Rurik Empire/docs/regions.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="bazun"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\bazGames\The Rurik Empire\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3301ABD3-46FF-488F-8A25-2D4B3AD8DFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="29040" windowHeight="15720" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1719129648" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
       <pm:docPrefs xmlns:pm="smNativeData" id="1719129648" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
@@ -23,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="521">
   <si>
     <t>id</t>
   </si>
@@ -1583,128 +1597,60 @@
   </si>
   <si>
     <t>Неизвестный</t>
+  </si>
+  <si>
+    <t>Коимбра</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;₽&quot;;\-#,##0\ &quot;₽&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;₽&quot;;[Red]\-#,##0\ &quot;₽&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="1" formatCode="0"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719129648" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Times New Roman" sz="220" lang="default"/>
-            <pm:ea face="SimSun" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="204"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1719129648" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1719129648" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1719129648"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1719129648"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
     <ext uri="smNativeData">
       <pm:charStyles xmlns:pm="smNativeData" id="1719129648" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
@@ -1719,10 +1665,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="D5D5D5"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="494949"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="EEECE1"/>
@@ -1969,20 +1915,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H483"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H485"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="B413" sqref="B413"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="T153" sqref="T153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.571429" customWidth="1"/>
-    <col min="3" max="3" width="10.714286" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1993,3928 +1939,6175 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="n">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <f>D2/1000</f>
-        <v>0.298999999999999986</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="n">
+        <f t="shared" ref="C2:C33" si="0">D2/1000</f>
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <f>D3/1000</f>
-        <v>0.283999999999999986</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="n">
+        <f t="shared" si="0"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <f>D4/1000</f>
-        <v>0.314000000000000012</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="n">
+        <f t="shared" si="0"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
-        <f>D5/1000</f>
-        <v>0.0379999999999999982</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="n">
+        <f t="shared" si="0"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
-        <f>D6/1000</f>
-        <v>0.0330000000000000027</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="n">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="D6" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <f>D7/1000</f>
-        <v>0.115000000000000013</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="n">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8">
-        <f>D8/1000</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="n">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9">
-        <f>D9/1000</f>
-        <v>0.206000000000000005</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="n">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10">
-        <f>D10/1000</f>
-        <v>0.045</v>
-      </c>
-      <c r="D10" s="1" t="n">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D10" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="n">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11">
-        <f>D11/1000</f>
-        <v>0.142999999999999989</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="n">
+        <f t="shared" si="0"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12">
-        <f>D12/1000</f>
-        <v>0.135000000000000009</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="n">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13">
-        <f>D13/1000</f>
-        <v>0.0509999999999999964</v>
-      </c>
-      <c r="D13" s="1" t="n">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D13" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="n">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14">
-        <f>D14/1000</f>
-        <v>0.314999999999999991</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="n">
+        <f t="shared" si="0"/>
+        <v>3.1E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15">
-        <f>D15/1000</f>
-        <v>0.0410000000000000053</v>
-      </c>
-      <c r="D15" s="1" t="n">
+        <f t="shared" si="0"/>
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D15" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="n">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16">
-        <f>D16/1000</f>
-        <v>0.258000000000000007</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="n">
+        <f t="shared" si="0"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17">
-        <f>D17/1000</f>
-        <v>0.137000000000000011</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="n">
+        <f t="shared" si="0"/>
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18">
-        <f>D18/1000</f>
-        <v>0.0210000000000000009</v>
-      </c>
-      <c r="D18" s="1" t="n">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D18" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="n">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19">
-        <f>D19/1000</f>
-        <v>0.216999999999999993</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="n">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20">
-        <f>D20/1000</f>
-        <v>0.208000000000000007</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="n">
+        <f t="shared" si="0"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21">
-        <f>D21/1000</f>
-        <v>0.292999999999999972</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="n">
+        <f t="shared" si="0"/>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22">
-        <f>D22/1000</f>
-        <v>0.306000000000000005</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="n">
+        <f t="shared" si="0"/>
+        <v>0.106</v>
+      </c>
+      <c r="D22" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23">
-        <f>D23/1000</f>
-        <v>0.245000000000000018</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="n">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24">
-        <f>D24/1000</f>
-        <v>0.237999999999999989</v>
-      </c>
-      <c r="D24" s="1" t="n">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="n">
+        <f t="shared" si="0"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25">
-        <f>D25/1000</f>
-        <v>0.320000000000000018</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="n">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26">
-        <f>D26/1000</f>
-        <v>0.153000000000000007</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="n">
+        <f t="shared" si="0"/>
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27">
-        <f>D27/1000</f>
-        <v>0.143999999999999995</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="n">
+        <f t="shared" si="0"/>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28">
-        <f>D28/1000</f>
-        <v>0.329000000000000004</v>
-      </c>
-      <c r="D28" s="1" t="n">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="n">
+        <f t="shared" si="0"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29">
-        <f>D29/1000</f>
-        <v>0.241999999999999993</v>
-      </c>
-      <c r="D29" s="1" t="n">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="n">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
       <c r="C30">
-        <f>D30/1000</f>
-        <v>0.137000000000000011</v>
-      </c>
-      <c r="D30" s="1" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="n">
+        <f t="shared" si="0"/>
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31">
-        <f>D31/1000</f>
+        <f t="shared" si="0"/>
         <v>0.13600000000000001</v>
       </c>
-      <c r="D31" s="1" t="n">
+      <c r="D31" s="1">
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="n">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
       <c r="C32">
-        <f>D32/1000</f>
-        <v>0.162000000000000011</v>
-      </c>
-      <c r="D32" s="1" t="n">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="n">
+        <f t="shared" si="0"/>
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33">
-        <f>D33/1000</f>
-        <v>0.04</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="n">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
       <c r="C34">
-        <f>D34/1000</f>
-        <v>0.269000000000000039</v>
-      </c>
-      <c r="D34" s="1" t="n">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="n">
+        <f t="shared" ref="C34:C65" si="1">D34/1000</f>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35">
-        <f>D35/1000</f>
-        <v>0.170000000000000018</v>
-      </c>
-      <c r="D35" s="1" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="n">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
       <c r="C36">
-        <f>D36/1000</f>
-        <v>0.234999999999999964</v>
-      </c>
-      <c r="D36" s="1" t="n">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="n">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
       <c r="C37">
-        <f>D37/1000</f>
-        <v>0.324000000000000021</v>
-      </c>
-      <c r="D37" s="1" t="n">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="n">
+        <f t="shared" si="1"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
       <c r="C38">
-        <f>D38/1000</f>
-        <v>0.143999999999999995</v>
-      </c>
-      <c r="D38" s="1" t="n">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="n">
+        <f t="shared" si="1"/>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
       <c r="C39">
-        <f>D39/1000</f>
-        <v>0.285999999999999979</v>
-      </c>
-      <c r="D39" s="1" t="n">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="n">
+        <f t="shared" si="1"/>
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
       <c r="C40">
-        <f>D40/1000</f>
-        <v>0.117999999999999994</v>
-      </c>
-      <c r="D40" s="1" t="n">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="n">
+        <f t="shared" si="1"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
       <c r="C41">
-        <f>D41/1000</f>
-        <v>0.218999999999999995</v>
-      </c>
-      <c r="D41" s="1" t="n">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="n">
+        <f t="shared" si="1"/>
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
       <c r="C42">
-        <f>D42/1000</f>
-        <v>0.338000000000000034</v>
-      </c>
-      <c r="D42" s="1" t="n">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="n">
+        <f t="shared" si="1"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
       </c>
       <c r="C43">
-        <f>D43/1000</f>
-        <v>0.141999999999999993</v>
-      </c>
-      <c r="D43" s="1" t="n">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="n">
+        <f t="shared" si="1"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
       </c>
       <c r="C44">
-        <f>D44/1000</f>
-        <v>0.23400000000000003</v>
-      </c>
-      <c r="D44" s="1" t="n">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="n">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
       <c r="C45">
-        <f>D45/1000</f>
-        <v>0.177000000000000002</v>
-      </c>
-      <c r="D45" s="1" t="n">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="n">
+        <f t="shared" si="1"/>
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
       </c>
       <c r="C46">
-        <f>D46/1000</f>
-        <v>0.298999999999999986</v>
-      </c>
-      <c r="D46" s="1" t="n">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="n">
+        <f t="shared" si="1"/>
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
       </c>
       <c r="C47">
-        <f>D47/1000</f>
-        <v>0.262000000000000011</v>
-      </c>
-      <c r="D47" s="1" t="n">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="n">
+        <f t="shared" si="1"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="D47" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
       </c>
       <c r="C48">
-        <f>D48/1000</f>
-        <v>0.314999999999999991</v>
-      </c>
-      <c r="D48" s="1" t="n">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="n">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D48" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
       </c>
       <c r="C49">
-        <f>D49/1000</f>
-        <v>0.156000000000000005</v>
-      </c>
-      <c r="D49" s="1" t="n">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="n">
+        <f t="shared" si="1"/>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
       </c>
       <c r="C50">
-        <f>D50/1000</f>
-        <v>0.278000000000000025</v>
-      </c>
-      <c r="D50" s="1" t="n">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="n">
+        <f t="shared" si="1"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
       </c>
       <c r="C51">
-        <f>D51/1000</f>
-        <v>0.242999999999999972</v>
-      </c>
-      <c r="D51" s="1" t="n">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="n">
+        <f t="shared" si="1"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
       </c>
       <c r="C52">
-        <f>D52/1000</f>
-        <v>0.34399999999999995</v>
-      </c>
-      <c r="D52" s="1" t="n">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="n">
+        <f t="shared" si="1"/>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D52" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
       </c>
       <c r="C53">
-        <f>D53/1000</f>
-        <v>0.193000000000000007</v>
-      </c>
-      <c r="D53" s="1" t="n">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="n">
+        <f t="shared" si="1"/>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D53" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
       <c r="C54">
-        <f>D54/1000</f>
-        <v>0.0459999999999999964</v>
-      </c>
-      <c r="D54" s="1" t="n">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D54" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="n">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
       </c>
       <c r="C55">
-        <f>D55/1000</f>
-        <v>0.0690000000000000036</v>
-      </c>
-      <c r="D55" s="1" t="n">
+        <f t="shared" si="1"/>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D55" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="n">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
       </c>
       <c r="C56">
-        <f>D56/1000</f>
-        <v>0.226000000000000023</v>
-      </c>
-      <c r="D56" s="1" t="n">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="n">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D56" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
       </c>
       <c r="C57">
-        <f>D57/1000</f>
-        <v>0.150999999999999996</v>
-      </c>
-      <c r="D57" s="1" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="n">
+        <f t="shared" si="1"/>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D57" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
       </c>
       <c r="C58">
-        <f>D58/1000</f>
-        <v>0.234999999999999964</v>
-      </c>
-      <c r="D58" s="1" t="n">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="n">
+        <f t="shared" si="1"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D58" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
       </c>
       <c r="C59">
-        <f>D59/1000</f>
-        <v>0.0830000000000000071</v>
-      </c>
-      <c r="D59" s="1" t="n">
+        <f t="shared" si="1"/>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D59" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="n">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
       </c>
       <c r="C60">
-        <f>D60/1000</f>
-        <v>0.250999999999999979</v>
-      </c>
-      <c r="D60" s="1" t="n">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="n">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D60" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
       </c>
       <c r="C61">
-        <f>D61/1000</f>
-        <v>0.347999999999999954</v>
-      </c>
-      <c r="D61" s="1" t="n">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="n">
+        <f t="shared" si="1"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D61" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
       </c>
       <c r="C62">
-        <f>D62/1000</f>
-        <v>0.0869999999999999929</v>
-      </c>
-      <c r="D62" s="1" t="n">
+        <f t="shared" si="1"/>
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D62" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="n">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
       </c>
       <c r="C63">
-        <f>D63/1000</f>
-        <v>0.347999999999999954</v>
-      </c>
-      <c r="D63" s="1" t="n">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="n">
+        <f t="shared" si="1"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D63" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
       </c>
       <c r="C64">
-        <f>D64/1000</f>
-        <v>0.22200000000000002</v>
-      </c>
-      <c r="D64" s="1" t="n">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="n">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D64" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
       </c>
       <c r="C65">
-        <f>D65/1000</f>
-        <v>0.339000000000000012</v>
-      </c>
-      <c r="D65" s="1" t="n">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="n">
+        <f t="shared" si="1"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="D65" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
       </c>
       <c r="C66">
-        <f>D66/1000</f>
-        <v>0.243999999999999995</v>
-      </c>
-      <c r="D66" s="1" t="n">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="n">
+        <f t="shared" ref="C66:C129" si="2">D66/1000</f>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D66" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
       </c>
       <c r="C67">
-        <f>D67/1000</f>
-        <v>0.118999999999999995</v>
-      </c>
-      <c r="D67" s="1" t="n">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="n">
+        <f t="shared" si="2"/>
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D67" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
       </c>
       <c r="C68">
-        <f>D68/1000</f>
-        <v>0.107000000000000006</v>
-      </c>
-      <c r="D68" s="1" t="n">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="n">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D68" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
       </c>
       <c r="C69">
-        <f>D69/1000</f>
-        <v>0.179000000000000004</v>
-      </c>
-      <c r="D69" s="1" t="n">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="n">
+        <f t="shared" si="2"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="D69" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
       </c>
       <c r="C70">
-        <f>D70/1000</f>
-        <v>0.273000000000000043</v>
-      </c>
-      <c r="D70" s="1" t="n">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="n">
+        <f t="shared" si="2"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="D70" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
       </c>
       <c r="C71">
-        <f>D71/1000</f>
-        <v>0.327000000000000002</v>
-      </c>
-      <c r="D71" s="1" t="n">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="n">
+        <f t="shared" si="2"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="D71" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
       </c>
       <c r="C72">
-        <f>D72/1000</f>
-        <v>0.218999999999999995</v>
-      </c>
-      <c r="D72" s="1" t="n">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="n">
+        <f t="shared" si="2"/>
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D72" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
       </c>
       <c r="C73">
-        <f>D73/1000</f>
-        <v>0.261000000000000032</v>
-      </c>
-      <c r="D73" s="1" t="n">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="n">
+        <f t="shared" si="2"/>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D73" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
       </c>
       <c r="C74">
-        <f>D74/1000</f>
-        <v>0.103000000000000003</v>
-      </c>
-      <c r="D74" s="1" t="n">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="n">
+        <f t="shared" si="2"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D74" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
       </c>
       <c r="C75">
-        <f>D75/1000</f>
-        <v>0.154000000000000004</v>
-      </c>
-      <c r="D75" s="1" t="n">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="n">
+        <f t="shared" si="2"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D75" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
       </c>
       <c r="C76">
-        <f>D76/1000</f>
-        <v>0.285999999999999979</v>
-      </c>
-      <c r="D76" s="1" t="n">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="n">
+        <f t="shared" si="2"/>
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D76" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
       </c>
       <c r="C77">
-        <f>D77/1000</f>
-        <v>0.163000000000000007</v>
-      </c>
-      <c r="D77" s="1" t="n">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="n">
+        <f t="shared" si="2"/>
+        <v>6.3E-2</v>
+      </c>
+      <c r="D77" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
       </c>
       <c r="C78">
-        <f>D78/1000</f>
-        <v>0.147999999999999998</v>
-      </c>
-      <c r="D78" s="1" t="n">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="n">
+        <f t="shared" si="2"/>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D78" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
       </c>
       <c r="C79">
-        <f>D79/1000</f>
-        <v>0.113000000000000012</v>
-      </c>
-      <c r="D79" s="1" t="n">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="n">
+        <f t="shared" si="2"/>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D79" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
       </c>
       <c r="C80">
-        <f>D80/1000</f>
-        <v>0.308999999999999986</v>
-      </c>
-      <c r="D80" s="1" t="n">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="n">
+        <f t="shared" si="2"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="D80" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
       </c>
       <c r="C81">
-        <f>D81/1000</f>
-        <v>0.195999999999999996</v>
-      </c>
-      <c r="D81" s="1" t="n">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" t="n">
+        <f t="shared" si="2"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D81" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
       </c>
+      <c r="C82">
+        <f t="shared" si="2"/>
+        <v>0.127</v>
+      </c>
+      <c r="D82">
+        <v>127</v>
+      </c>
       <c r="H82" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="n">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="n">
+      <c r="C83">
+        <f t="shared" si="2"/>
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="D83">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="n">
+      <c r="C84">
+        <f t="shared" si="2"/>
+        <v>0.105</v>
+      </c>
+      <c r="D84">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="n">
+      <c r="C85">
+        <f t="shared" si="2"/>
+        <v>0.106</v>
+      </c>
+      <c r="D85">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="n">
+      <c r="C86">
+        <f t="shared" si="2"/>
+        <v>0.115</v>
+      </c>
+      <c r="D86">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="n">
+      <c r="C87">
+        <f t="shared" si="2"/>
+        <v>0.114</v>
+      </c>
+      <c r="D87">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" t="n">
+      <c r="C88">
+        <f t="shared" si="2"/>
+        <v>0.113</v>
+      </c>
+      <c r="D88">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>91</v>
       </c>
+      <c r="C89">
+        <f t="shared" si="2"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D89">
+        <v>84</v>
+      </c>
       <c r="H89" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="n">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="n">
+      <c r="C90">
+        <f t="shared" si="2"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="D90">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="n">
+      <c r="C91">
+        <f t="shared" si="2"/>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D91">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="n">
+      <c r="C92">
+        <f t="shared" si="2"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="D92">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="n">
+      <c r="C93">
+        <f t="shared" si="2"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="D93">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>97</v>
       </c>
+      <c r="C94">
+        <f t="shared" si="2"/>
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="D94">
+        <v>459</v>
+      </c>
       <c r="H94" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="n">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="n">
+      <c r="C95">
+        <f t="shared" si="2"/>
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="D95">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="n">
+      <c r="C96">
+        <f t="shared" si="2"/>
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="D96">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="n">
+      <c r="C97">
+        <f t="shared" si="2"/>
+        <v>1.111</v>
+      </c>
+      <c r="D97">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="n">
+      <c r="C98">
+        <f t="shared" si="2"/>
+        <v>1.02</v>
+      </c>
+      <c r="D98">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="n">
+      <c r="C99">
+        <f t="shared" si="2"/>
+        <v>0.875</v>
+      </c>
+      <c r="D99">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="n">
+      <c r="C100">
+        <f t="shared" si="2"/>
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="D100">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="n">
+      <c r="C101">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D101">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="n">
+      <c r="C102">
+        <f t="shared" si="2"/>
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="D102">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="n">
+      <c r="C103">
+        <f t="shared" si="2"/>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="D103">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" t="n">
+      <c r="C104">
+        <f t="shared" si="2"/>
+        <v>1.091</v>
+      </c>
+      <c r="D104">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>109</v>
       </c>
+      <c r="C105">
+        <f t="shared" si="2"/>
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D105">
+        <v>67</v>
+      </c>
       <c r="H105" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="n">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="n">
+      <c r="C106">
+        <f t="shared" si="2"/>
+        <v>1.103</v>
+      </c>
+      <c r="D106">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="n">
+      <c r="C107">
+        <f t="shared" si="2"/>
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="D107">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="n">
+      <c r="C108">
+        <f t="shared" si="2"/>
+        <v>6.3E-2</v>
+      </c>
+      <c r="D108">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="n">
+      <c r="C109">
+        <f t="shared" si="2"/>
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="D109">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="n">
+      <c r="C110">
+        <f t="shared" si="2"/>
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D110">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="n">
+      <c r="C111">
+        <f t="shared" si="2"/>
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="D111">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="n">
+      <c r="C112">
+        <f t="shared" si="2"/>
+        <v>1.095</v>
+      </c>
+      <c r="D112">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="n">
+      <c r="C113">
+        <f t="shared" si="2"/>
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="D113">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="n">
+      <c r="C114">
+        <f t="shared" si="2"/>
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="D114">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="n">
+      <c r="C115">
+        <f t="shared" si="2"/>
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="D115">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" t="n">
+      <c r="C116">
+        <f t="shared" si="2"/>
+        <v>1.1339999999999999</v>
+      </c>
+      <c r="D116">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>121</v>
       </c>
+      <c r="C117">
+        <f t="shared" si="2"/>
+        <v>0.183</v>
+      </c>
+      <c r="D117">
+        <v>183</v>
+      </c>
       <c r="H117" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="n">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="n">
+      <c r="C118">
+        <f t="shared" si="2"/>
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D118">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="n">
+      <c r="C119">
+        <f t="shared" si="2"/>
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="D119">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="n">
+      <c r="C120">
+        <f t="shared" si="2"/>
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="D120">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="n">
+      <c r="C121">
+        <f t="shared" si="2"/>
+        <v>0.752</v>
+      </c>
+      <c r="D121">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="n">
+      <c r="C122">
+        <f t="shared" si="2"/>
+        <v>0.371</v>
+      </c>
+      <c r="D122">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="n">
+      <c r="C123">
+        <f t="shared" si="2"/>
+        <v>1.141</v>
+      </c>
+      <c r="D123">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="n">
+      <c r="C124">
+        <f t="shared" si="2"/>
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="D124">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" t="n">
+      <c r="C125">
+        <f t="shared" si="2"/>
+        <v>1.093</v>
+      </c>
+      <c r="D125">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>131</v>
       </c>
+      <c r="C126">
+        <f t="shared" si="2"/>
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="D126">
+        <v>266</v>
+      </c>
       <c r="H126" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="n">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="n">
+      <c r="C127">
+        <f t="shared" si="2"/>
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="D127">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="n">
+      <c r="C128">
+        <f t="shared" si="2"/>
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D128">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="n">
+      <c r="C129">
+        <f t="shared" si="2"/>
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="D129">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="n">
+      <c r="C130">
+        <f t="shared" ref="C130:C193" si="3">D130/1000</f>
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="D130">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="n">
+      <c r="C131">
+        <f t="shared" si="3"/>
+        <v>0.68</v>
+      </c>
+      <c r="D131">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="n">
+      <c r="C132">
+        <f t="shared" si="3"/>
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="D132">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="n">
+      <c r="C133">
+        <f t="shared" si="3"/>
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D133">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" t="n">
+      <c r="C134">
+        <f t="shared" si="3"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D134">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>141</v>
       </c>
+      <c r="C135">
+        <f t="shared" si="3"/>
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="D135">
+        <v>404</v>
+      </c>
       <c r="H135" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="n">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="n">
+      <c r="C136">
+        <f t="shared" si="3"/>
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="D136">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="n">
+      <c r="C137">
+        <f t="shared" si="3"/>
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="D137">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="n">
+      <c r="C138">
+        <f t="shared" si="3"/>
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="D138">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="n">
+      <c r="C139">
+        <f t="shared" si="3"/>
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="D139">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="n">
+      <c r="C140">
+        <f t="shared" si="3"/>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D140">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="n">
+      <c r="C141">
+        <f t="shared" si="3"/>
+        <v>0.109</v>
+      </c>
+      <c r="D141">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="n">
+      <c r="C142">
+        <f t="shared" si="3"/>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="D142">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="n">
+      <c r="C143">
+        <f t="shared" si="3"/>
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D143">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="n">
+      <c r="C144">
+        <f t="shared" si="3"/>
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D144">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="n">
+      <c r="C145">
+        <f t="shared" si="3"/>
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="D145">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="n">
+      <c r="C146">
+        <f t="shared" si="3"/>
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="D146">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="n">
+      <c r="C147">
+        <f t="shared" si="3"/>
+        <v>1.149</v>
+      </c>
+      <c r="D147">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="n">
+      <c r="C148">
+        <f t="shared" si="3"/>
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="D148">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="n">
+      <c r="C149">
+        <f t="shared" si="3"/>
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="D149">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="n">
+      <c r="C150">
+        <f t="shared" si="3"/>
+        <v>0.505</v>
+      </c>
+      <c r="D150">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="n">
+      <c r="C151">
+        <f t="shared" si="3"/>
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="D151">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="n">
+      <c r="C152">
+        <f t="shared" si="3"/>
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="D152">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="n">
+      <c r="C153">
+        <f t="shared" si="3"/>
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="D153">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="n">
+      <c r="C154">
+        <f t="shared" si="3"/>
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="D154">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="n">
+      <c r="C155">
+        <f t="shared" si="3"/>
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="D155">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="n">
+      <c r="C156">
+        <f t="shared" si="3"/>
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D156">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="n">
+      <c r="C157">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="D157">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="n">
+      <c r="C158">
+        <f t="shared" si="3"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D158">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="n">
+      <c r="C159">
+        <f t="shared" si="3"/>
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="D159">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="n">
+      <c r="C160">
+        <f t="shared" si="3"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D160">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" t="n">
+      <c r="C161">
+        <f t="shared" si="3"/>
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D161">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
         <v>169</v>
       </c>
+      <c r="C162">
+        <f t="shared" si="3"/>
+        <v>0.92</v>
+      </c>
+      <c r="D162">
+        <v>920</v>
+      </c>
       <c r="H162" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="n">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" t="n">
+      <c r="C163">
+        <f t="shared" si="3"/>
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="D163">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="n">
+      <c r="C164">
+        <f t="shared" si="3"/>
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="D164">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="n">
+      <c r="C165">
+        <f t="shared" si="3"/>
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="D165">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="n">
+      <c r="C166">
+        <f t="shared" si="3"/>
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="D166">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" t="n">
+      <c r="C167">
+        <f t="shared" si="3"/>
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="D167">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" t="n">
+      <c r="C168">
+        <f t="shared" si="3"/>
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="D168">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" t="n">
+      <c r="C169">
+        <f t="shared" si="3"/>
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="D169">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" t="n">
+      <c r="C170">
+        <f t="shared" si="3"/>
+        <v>0.755</v>
+      </c>
+      <c r="D170">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" t="n">
+      <c r="C171">
+        <f t="shared" si="3"/>
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D171">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173" t="n">
+      <c r="C172">
+        <f t="shared" si="3"/>
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="D172">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
         <v>181</v>
       </c>
+      <c r="C173">
+        <f t="shared" si="3"/>
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="D173">
+        <v>969</v>
+      </c>
       <c r="H173" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="n">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" t="n">
+      <c r="C174">
+        <f t="shared" si="3"/>
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="D174">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" t="n">
+      <c r="C175">
+        <f t="shared" si="3"/>
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="D175">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" t="n">
+      <c r="C176">
+        <f t="shared" si="3"/>
+        <v>0.128</v>
+      </c>
+      <c r="D176">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" t="n">
+      <c r="C177">
+        <f t="shared" si="3"/>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="D177">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" t="n">
+      <c r="C178">
+        <f t="shared" si="3"/>
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="D178">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" t="n">
+      <c r="C179">
+        <f t="shared" si="3"/>
+        <v>1.022</v>
+      </c>
+      <c r="D179">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
         <v>189</v>
       </c>
+      <c r="C180">
+        <f t="shared" si="3"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D180">
+        <v>42</v>
+      </c>
       <c r="H180" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="n">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" t="n">
+      <c r="C181">
+        <f t="shared" si="3"/>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="D181">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" t="n">
+      <c r="C182">
+        <f t="shared" si="3"/>
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="D182">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="n">
+      <c r="C183">
+        <f t="shared" si="3"/>
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="D183">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="n">
+      <c r="C184">
+        <f t="shared" si="3"/>
+        <v>0.188</v>
+      </c>
+      <c r="D184">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" t="n">
+      <c r="C185">
+        <f t="shared" si="3"/>
+        <v>0.995</v>
+      </c>
+      <c r="D185">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" t="n">
+      <c r="C186">
+        <f t="shared" si="3"/>
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="D186">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="A188" t="n">
+      <c r="C187">
+        <f t="shared" si="3"/>
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="D187">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
         <v>163</v>
       </c>
+      <c r="C188">
+        <f t="shared" si="3"/>
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="D188">
+        <v>704</v>
+      </c>
       <c r="H188" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="n">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" t="n">
+      <c r="C189">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="D189">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" t="n">
+      <c r="C190">
+        <f t="shared" si="3"/>
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="D190">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" t="n">
+      <c r="C191">
+        <f t="shared" si="3"/>
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="D191">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" t="n">
+      <c r="C192">
+        <f t="shared" si="3"/>
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="D192">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" t="n">
+      <c r="C193">
+        <f t="shared" si="3"/>
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="D193">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" t="n">
+      <c r="C194">
+        <f t="shared" ref="C194:C257" si="4">D194/1000</f>
+        <v>0.155</v>
+      </c>
+      <c r="D194">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="A196" t="n">
+      <c r="C195">
+        <f t="shared" si="4"/>
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="D195">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
         <v>205</v>
       </c>
+      <c r="C196">
+        <f t="shared" si="4"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="D196">
+        <v>725</v>
+      </c>
       <c r="H196" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
-      <c r="A197" t="n">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" t="n">
+      <c r="C197">
+        <f t="shared" si="4"/>
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="D197">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" t="n">
+      <c r="C198">
+        <f t="shared" si="4"/>
+        <v>0.997</v>
+      </c>
+      <c r="D198">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" t="n">
+      <c r="C199">
+        <f t="shared" si="4"/>
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="D199">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" t="n">
+      <c r="C200">
+        <f t="shared" si="4"/>
+        <v>0.188</v>
+      </c>
+      <c r="D200">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" t="n">
+      <c r="C201">
+        <f t="shared" si="4"/>
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="D201">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="n">
+      <c r="C202">
+        <f t="shared" si="4"/>
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="D202">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" t="n">
+      <c r="C203">
+        <f t="shared" si="4"/>
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="D203">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" t="n">
+      <c r="C204">
+        <f t="shared" si="4"/>
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="D204">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" t="n">
+      <c r="C205">
+        <f t="shared" si="4"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D205">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="207" spans="1:8">
-      <c r="A207" t="n">
+      <c r="C206">
+        <f t="shared" si="4"/>
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="D206">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
         <v>217</v>
       </c>
+      <c r="C207">
+        <f t="shared" si="4"/>
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="D207">
+        <v>946</v>
+      </c>
       <c r="H207" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
-      <c r="A208" t="n">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" t="n">
+      <c r="C208">
+        <f t="shared" si="4"/>
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="D208">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" t="n">
+      <c r="C209">
+        <f t="shared" si="4"/>
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="D209">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" t="n">
+      <c r="C210">
+        <f t="shared" si="4"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D210">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" t="n">
+      <c r="C211">
+        <f t="shared" si="4"/>
+        <v>0.79</v>
+      </c>
+      <c r="D211">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="213" spans="1:8">
-      <c r="A213" t="n">
+      <c r="C212">
+        <f t="shared" si="4"/>
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="D212">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
         <v>224</v>
       </c>
+      <c r="C213">
+        <f t="shared" si="4"/>
+        <v>0.747</v>
+      </c>
+      <c r="D213">
+        <v>747</v>
+      </c>
       <c r="H213" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
-      <c r="A214" t="n">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" t="n">
+      <c r="C214">
+        <f t="shared" si="4"/>
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="D214">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" t="n">
+      <c r="C215">
+        <f t="shared" si="4"/>
+        <v>0.92</v>
+      </c>
+      <c r="D215">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" t="n">
+      <c r="C216">
+        <f t="shared" si="4"/>
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="D216">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" t="n">
+      <c r="C217">
+        <f t="shared" si="4"/>
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="D217">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" t="n">
+      <c r="C218">
+        <f t="shared" si="4"/>
+        <v>1.097</v>
+      </c>
+      <c r="D218">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="220" spans="1:8">
-      <c r="A220" t="n">
+      <c r="C219">
+        <f t="shared" si="4"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D219">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
         <v>232</v>
       </c>
+      <c r="C220">
+        <f t="shared" si="4"/>
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="D220">
+        <v>1033</v>
+      </c>
       <c r="H220" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
-      <c r="A221" t="n">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" t="n">
+      <c r="C221">
+        <f t="shared" si="4"/>
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D221">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="223" spans="1:8">
-      <c r="A223" t="n">
+      <c r="C222">
+        <f t="shared" si="4"/>
+        <v>0.26</v>
+      </c>
+      <c r="D222">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
         <v>235</v>
       </c>
+      <c r="C223">
+        <f t="shared" si="4"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="D223">
+        <v>165</v>
+      </c>
       <c r="H223" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
-      <c r="A224" t="n">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" t="n">
+      <c r="C224">
+        <f t="shared" si="4"/>
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="D224">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" t="n">
+      <c r="C225">
+        <f t="shared" si="4"/>
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="D225">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="227" spans="1:8">
-      <c r="A227" t="n">
+      <c r="C226">
+        <f t="shared" si="4"/>
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="D226">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" t="s">
         <v>240</v>
       </c>
+      <c r="C227">
+        <f t="shared" si="4"/>
+        <v>0.18</v>
+      </c>
+      <c r="D227">
+        <v>180</v>
+      </c>
       <c r="H227" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
-      <c r="A228" t="n">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="229" spans="1:8">
-      <c r="A229" t="n">
+      <c r="C228">
+        <f t="shared" si="4"/>
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="D228">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" t="s">
         <v>242</v>
       </c>
+      <c r="C229">
+        <f t="shared" si="4"/>
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="D229">
+        <v>491</v>
+      </c>
       <c r="H229" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
-      <c r="A230" t="n">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" t="n">
+      <c r="C230">
+        <f t="shared" si="4"/>
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="D230">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" t="n">
+      <c r="C231">
+        <f t="shared" si="4"/>
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D231">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="233" spans="1:8">
-      <c r="A233" t="n">
+      <c r="C232">
+        <f t="shared" si="4"/>
+        <v>1.002</v>
+      </c>
+      <c r="D232">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" t="s">
         <v>247</v>
       </c>
+      <c r="C233">
+        <f t="shared" si="4"/>
+        <v>0.191</v>
+      </c>
+      <c r="D233">
+        <v>191</v>
+      </c>
       <c r="H233" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
-      <c r="A234" t="n">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="235" spans="1:8">
-      <c r="A235" t="n">
+      <c r="C234">
+        <f t="shared" si="4"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D234">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" t="s">
         <v>250</v>
       </c>
+      <c r="C235">
+        <f t="shared" si="4"/>
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="D235">
+        <v>344</v>
+      </c>
       <c r="H235" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
-      <c r="A236" t="n">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="237" spans="1:8">
-      <c r="A237" t="n">
+      <c r="C236">
+        <f t="shared" si="4"/>
+        <v>1.125</v>
+      </c>
+      <c r="D236">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" t="s">
         <v>253</v>
       </c>
+      <c r="C237">
+        <f t="shared" si="4"/>
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="D237">
+        <v>562</v>
+      </c>
       <c r="H237" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
-      <c r="A238" t="n">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" t="n">
+      <c r="C238">
+        <f t="shared" si="4"/>
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="D238">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" t="n">
+      <c r="C239">
+        <f t="shared" si="4"/>
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="D239">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" t="n">
+      <c r="C240">
+        <f t="shared" si="4"/>
+        <v>0.23</v>
+      </c>
+      <c r="D240">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" t="n">
+      <c r="C241">
+        <f t="shared" si="4"/>
+        <v>0.155</v>
+      </c>
+      <c r="D241">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" t="n">
+      <c r="C242">
+        <f t="shared" si="4"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="D242">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" t="n">
+      <c r="C243">
+        <f t="shared" si="4"/>
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="D243">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" t="n">
+      <c r="C244">
+        <f t="shared" si="4"/>
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="D244">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245">
         <v>244</v>
       </c>
       <c r="B245" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" t="n">
+      <c r="C245">
+        <f t="shared" si="4"/>
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="D245">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246">
         <v>245</v>
       </c>
       <c r="B246" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="247" spans="1:8">
-      <c r="A247" t="n">
+      <c r="C246">
+        <f t="shared" si="4"/>
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="D246">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247">
         <v>246</v>
       </c>
       <c r="B247" t="s">
         <v>264</v>
       </c>
+      <c r="C247">
+        <f t="shared" si="4"/>
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D247">
+        <v>73</v>
+      </c>
       <c r="H247" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
-      <c r="A248" t="n">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248">
         <v>247</v>
       </c>
       <c r="B248" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" t="n">
+      <c r="C248">
+        <f t="shared" si="4"/>
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="D248">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249">
         <v>248</v>
       </c>
       <c r="B249" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" t="n">
+      <c r="C249">
+        <f t="shared" si="4"/>
+        <v>0.749</v>
+      </c>
+      <c r="D249">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" t="n">
+      <c r="C250">
+        <f t="shared" si="4"/>
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="D250">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251">
         <v>250</v>
       </c>
       <c r="B251" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" t="n">
+      <c r="C251">
+        <f t="shared" si="4"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D251">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252">
         <v>251</v>
       </c>
       <c r="B252" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="253" spans="1:8">
-      <c r="A253" t="n">
+      <c r="C252">
+        <f t="shared" si="4"/>
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="D252">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253">
         <v>252</v>
       </c>
       <c r="B253" t="s">
         <v>271</v>
       </c>
+      <c r="C253">
+        <f t="shared" si="4"/>
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="D253">
+        <v>928</v>
+      </c>
       <c r="H253" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
-      <c r="A254" t="n">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254">
         <v>253</v>
       </c>
       <c r="B254" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="255" spans="1:8">
-      <c r="A255" t="n">
+      <c r="C254">
+        <f t="shared" si="4"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D254">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255">
         <v>254</v>
       </c>
       <c r="B255" t="s">
         <v>274</v>
       </c>
+      <c r="C255">
+        <f t="shared" si="4"/>
+        <v>0.378</v>
+      </c>
+      <c r="D255">
+        <v>378</v>
+      </c>
       <c r="H255" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
-      <c r="A256" t="n">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256">
         <v>255</v>
       </c>
       <c r="B256" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" t="n">
+      <c r="C256">
+        <f t="shared" si="4"/>
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="D256">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257">
         <v>256</v>
       </c>
       <c r="B257" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="258" spans="1:8">
-      <c r="A258" t="n">
+      <c r="C257">
+        <f t="shared" si="4"/>
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D257">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258">
         <v>257</v>
       </c>
       <c r="B258" t="s">
         <v>278</v>
       </c>
+      <c r="C258">
+        <f t="shared" ref="C258:C321" si="5">D258/1000</f>
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="D258">
+        <v>636</v>
+      </c>
       <c r="H258" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
-      <c r="A259" t="n">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259">
         <v>258</v>
       </c>
       <c r="B259" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="260" spans="1:8">
-      <c r="A260" t="n">
+      <c r="C259">
+        <f t="shared" si="5"/>
+        <v>0.23</v>
+      </c>
+      <c r="D259">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260">
         <v>259</v>
       </c>
       <c r="B260" t="s">
         <v>281</v>
       </c>
+      <c r="C260">
+        <f t="shared" si="5"/>
+        <v>0.876</v>
+      </c>
+      <c r="D260">
+        <v>876</v>
+      </c>
       <c r="H260" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
-      <c r="A261" t="n">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261">
         <v>260</v>
       </c>
       <c r="B261" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="262" spans="1:8">
-      <c r="A262" t="n">
+      <c r="C261">
+        <f t="shared" si="5"/>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="D261">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262">
         <v>261</v>
       </c>
       <c r="B262" t="s">
         <v>284</v>
       </c>
+      <c r="C262">
+        <f t="shared" si="5"/>
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="D262">
+        <v>553</v>
+      </c>
       <c r="H262" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
-      <c r="A263" t="n">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263">
         <v>262</v>
       </c>
       <c r="B263" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" t="n">
+      <c r="C263">
+        <f t="shared" si="5"/>
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="D263">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264">
         <v>263</v>
       </c>
       <c r="B264" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="265" spans="1:8">
-      <c r="A265" t="n">
+      <c r="C264">
+        <f t="shared" si="5"/>
+        <v>0.49</v>
+      </c>
+      <c r="D264">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265">
         <v>264</v>
       </c>
       <c r="B265" t="s">
         <v>288</v>
       </c>
+      <c r="C265">
+        <f t="shared" si="5"/>
+        <v>0.17</v>
+      </c>
+      <c r="D265">
+        <v>170</v>
+      </c>
       <c r="H265" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
-      <c r="A266" t="n">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266">
         <v>265</v>
       </c>
       <c r="B266" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="267" spans="1:8">
-      <c r="A267" t="n">
+      <c r="C266">
+        <f t="shared" si="5"/>
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="D266">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267">
         <v>266</v>
       </c>
       <c r="B267" t="s">
         <v>291</v>
       </c>
+      <c r="C267">
+        <f t="shared" si="5"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D267">
+        <v>95</v>
+      </c>
       <c r="H267" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
-      <c r="A268" t="n">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268">
         <v>267</v>
       </c>
       <c r="B268" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" t="n">
+      <c r="C268">
+        <f t="shared" si="5"/>
+        <v>1.044</v>
+      </c>
+      <c r="D268">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269">
         <v>268</v>
       </c>
       <c r="B269" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="270" spans="1:8">
-      <c r="A270" t="n">
+      <c r="C269">
+        <f t="shared" si="5"/>
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="D269">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270">
         <v>269</v>
       </c>
       <c r="B270" t="s">
         <v>294</v>
       </c>
+      <c r="C270">
+        <f t="shared" si="5"/>
+        <v>0.111</v>
+      </c>
+      <c r="D270">
+        <v>111</v>
+      </c>
       <c r="H270" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
-      <c r="A271" t="n">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271">
         <v>270</v>
       </c>
       <c r="B271" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" t="n">
+      <c r="C271">
+        <f t="shared" si="5"/>
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D271">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272">
         <v>271</v>
       </c>
       <c r="B272" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" t="n">
+      <c r="C272">
+        <f t="shared" si="5"/>
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="D272">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273">
         <v>272</v>
       </c>
       <c r="B273" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" t="n">
+      <c r="C273">
+        <f t="shared" si="5"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D273">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274">
         <v>273</v>
       </c>
       <c r="B274" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="275" spans="1:8">
-      <c r="A275" t="n">
+      <c r="C274">
+        <f t="shared" si="5"/>
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="D274">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275">
         <v>274</v>
       </c>
       <c r="B275" t="s">
         <v>214</v>
       </c>
+      <c r="C275">
+        <f t="shared" si="5"/>
+        <v>0.214</v>
+      </c>
+      <c r="D275">
+        <v>214</v>
+      </c>
       <c r="H275" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
-      <c r="A276" t="n">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276">
         <v>275</v>
       </c>
       <c r="B276" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" t="n">
+      <c r="C276">
+        <f t="shared" si="5"/>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="D276">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277">
         <v>276</v>
       </c>
       <c r="B277" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" t="n">
+      <c r="C277">
+        <f t="shared" si="5"/>
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="D277">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278">
         <v>277</v>
       </c>
       <c r="B278" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" t="n">
+      <c r="C278">
+        <f t="shared" si="5"/>
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="D278">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279">
         <v>278</v>
       </c>
       <c r="B279" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" t="n">
+      <c r="C279">
+        <f t="shared" si="5"/>
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="D279">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280">
         <v>279</v>
       </c>
       <c r="B280" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" t="n">
+      <c r="C280">
+        <f t="shared" si="5"/>
+        <v>0.308</v>
+      </c>
+      <c r="D280">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281">
         <v>280</v>
       </c>
       <c r="B281" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" t="n">
+      <c r="C281">
+        <f t="shared" si="5"/>
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="D281">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282">
         <v>281</v>
       </c>
       <c r="B282" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" t="n">
+      <c r="C282">
+        <f t="shared" si="5"/>
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="D282">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283">
         <v>282</v>
       </c>
       <c r="B283" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284" t="n">
+      <c r="C283">
+        <f t="shared" si="5"/>
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="D283">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284">
         <v>283</v>
       </c>
       <c r="B284" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285" t="n">
+      <c r="C284">
+        <f t="shared" si="5"/>
+        <v>0.438</v>
+      </c>
+      <c r="D284">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285">
         <v>284</v>
       </c>
       <c r="B285" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="286" spans="1:2">
-      <c r="A286" t="n">
+      <c r="C285">
+        <f t="shared" si="5"/>
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="D285">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286">
         <v>285</v>
       </c>
       <c r="B286" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" t="n">
+      <c r="C286">
+        <f t="shared" si="5"/>
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="D286">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287">
         <v>286</v>
       </c>
       <c r="B287" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="288" spans="1:8">
-      <c r="A288" t="n">
+      <c r="C287">
+        <f t="shared" si="5"/>
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="D287">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288">
         <v>287</v>
       </c>
       <c r="B288" t="s">
         <v>310</v>
       </c>
+      <c r="C288">
+        <f t="shared" si="5"/>
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="D288">
+        <v>1031</v>
+      </c>
       <c r="H288" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
-      <c r="A289" t="n">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289">
         <v>288</v>
       </c>
       <c r="B289" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="290" spans="1:2">
-      <c r="A290" t="n">
+      <c r="C289">
+        <f t="shared" si="5"/>
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="D289">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290">
         <v>289</v>
       </c>
       <c r="B290" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="291" spans="1:2">
-      <c r="A291" t="n">
+      <c r="C290">
+        <f t="shared" si="5"/>
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="D290">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291">
         <v>290</v>
       </c>
       <c r="B291" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="292" spans="1:2">
-      <c r="A292" t="n">
+      <c r="C291">
+        <f t="shared" si="5"/>
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="D291">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292">
         <v>291</v>
       </c>
       <c r="B292" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="293" spans="1:2">
-      <c r="A293" t="n">
+      <c r="C292">
+        <f t="shared" si="5"/>
+        <v>0.42</v>
+      </c>
+      <c r="D292">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293">
         <v>292</v>
       </c>
       <c r="B293" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="294" spans="1:2">
-      <c r="A294" t="n">
+      <c r="C293">
+        <f t="shared" si="5"/>
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="D293">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294">
         <v>293</v>
       </c>
       <c r="B294" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="295" spans="1:2">
-      <c r="A295" t="n">
+      <c r="C294">
+        <f t="shared" si="5"/>
+        <v>0.188</v>
+      </c>
+      <c r="D294">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295">
         <v>294</v>
       </c>
       <c r="B295" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="296" spans="1:2">
-      <c r="A296" t="n">
+      <c r="C295">
+        <f t="shared" si="5"/>
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="D295">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296">
         <v>295</v>
       </c>
       <c r="B296" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="297" spans="1:8">
-      <c r="A297" t="n">
+      <c r="C296">
+        <f t="shared" si="5"/>
+        <v>1.08</v>
+      </c>
+      <c r="D296">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A297">
         <v>296</v>
       </c>
       <c r="B297" t="s">
         <v>320</v>
       </c>
+      <c r="C297">
+        <f t="shared" si="5"/>
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="D297">
+        <v>1136</v>
+      </c>
       <c r="H297" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
-      <c r="A298" t="n">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298">
         <v>297</v>
       </c>
       <c r="B298" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="299" spans="1:2">
-      <c r="A299" t="n">
+      <c r="C298">
+        <f t="shared" si="5"/>
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="D298">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A299">
         <v>298</v>
       </c>
       <c r="B299" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="300" spans="1:2">
-      <c r="A300" t="n">
+      <c r="C299">
+        <f t="shared" si="5"/>
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="D299">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A300">
         <v>299</v>
       </c>
       <c r="B300" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="301" spans="1:8">
-      <c r="A301" t="n">
+      <c r="C300">
+        <f t="shared" si="5"/>
+        <v>0.87</v>
+      </c>
+      <c r="D300">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A301">
         <v>300</v>
       </c>
       <c r="B301" t="s">
         <v>325</v>
       </c>
+      <c r="C301">
+        <f t="shared" si="5"/>
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="D301">
+        <v>817</v>
+      </c>
       <c r="H301" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
-      <c r="A302" t="n">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A302">
         <v>301</v>
       </c>
       <c r="B302" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="303" spans="1:2">
-      <c r="A303" t="n">
+      <c r="C302">
+        <f t="shared" si="5"/>
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="D302">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A303">
         <v>302</v>
       </c>
       <c r="B303" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="A304" t="n">
+      <c r="C303">
+        <f t="shared" si="5"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="D303">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A304">
         <v>303</v>
       </c>
       <c r="B304" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" t="n">
+      <c r="C304">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
+      <c r="D304">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A305">
         <v>304</v>
       </c>
       <c r="B305" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="306" spans="1:2">
-      <c r="A306" t="n">
+      <c r="C305">
+        <f t="shared" si="5"/>
+        <v>0.06</v>
+      </c>
+      <c r="D305">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A306">
         <v>305</v>
       </c>
       <c r="B306" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="307" spans="1:8">
-      <c r="A307" t="n">
+      <c r="C306">
+        <f t="shared" si="5"/>
+        <v>0.503</v>
+      </c>
+      <c r="D306">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A307">
         <v>306</v>
       </c>
       <c r="B307" t="s">
         <v>232</v>
       </c>
+      <c r="C307">
+        <f t="shared" si="5"/>
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="D307">
+        <v>645</v>
+      </c>
       <c r="H307" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
-      <c r="A308" t="n">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A308">
         <v>307</v>
       </c>
       <c r="B308" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="309" spans="1:2">
-      <c r="A309" t="n">
+      <c r="C308">
+        <f t="shared" si="5"/>
+        <v>0.154</v>
+      </c>
+      <c r="D308">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A309">
         <v>308</v>
       </c>
       <c r="B309" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="310" spans="1:2">
-      <c r="A310" t="n">
+      <c r="C309">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="D309">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A310">
         <v>309</v>
       </c>
       <c r="B310" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="311" spans="1:2">
-      <c r="A311" t="n">
+      <c r="C310">
+        <f t="shared" si="5"/>
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="D310">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A311">
         <v>310</v>
       </c>
       <c r="B311" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="312" spans="1:8">
-      <c r="A312" t="n">
+      <c r="C311">
+        <f t="shared" si="5"/>
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="D311">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A312">
         <v>311</v>
       </c>
       <c r="B312" t="s">
         <v>337</v>
       </c>
+      <c r="C312">
+        <f t="shared" si="5"/>
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="D312">
+        <v>764</v>
+      </c>
       <c r="H312" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
-      <c r="A313" t="n">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A313">
         <v>312</v>
       </c>
       <c r="B313" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="314" spans="1:2">
-      <c r="A314" t="n">
+      <c r="C313">
+        <f t="shared" si="5"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="D313">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A314">
         <v>313</v>
       </c>
       <c r="B314" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="315" spans="1:2">
-      <c r="A315" t="n">
+      <c r="C314">
+        <f t="shared" si="5"/>
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="D314">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A315">
         <v>314</v>
       </c>
       <c r="B315" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="316" spans="1:2">
-      <c r="A316" t="n">
+      <c r="C315">
+        <f t="shared" si="5"/>
+        <v>0.74</v>
+      </c>
+      <c r="D315">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A316">
         <v>315</v>
       </c>
       <c r="B316" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="317" spans="1:2">
-      <c r="A317" t="n">
+      <c r="C316">
+        <f t="shared" si="5"/>
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="D316">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A317">
         <v>316</v>
       </c>
       <c r="B317" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="318" spans="1:8">
-      <c r="A318" t="n">
+      <c r="C317">
+        <f t="shared" si="5"/>
+        <v>0.34</v>
+      </c>
+      <c r="D317">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A318">
         <v>317</v>
       </c>
       <c r="B318" t="s">
         <v>344</v>
       </c>
+      <c r="C318">
+        <f t="shared" si="5"/>
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="D318">
+        <v>478</v>
+      </c>
       <c r="H318" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
-      <c r="A319" t="n">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A319">
         <v>318</v>
       </c>
       <c r="B319" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="320" spans="1:2">
-      <c r="A320" t="n">
+      <c r="C319">
+        <f t="shared" si="5"/>
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="D319">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A320">
         <v>319</v>
       </c>
       <c r="B320" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="321" spans="1:2">
-      <c r="A321" t="n">
+      <c r="C320">
+        <f t="shared" si="5"/>
+        <v>0.78</v>
+      </c>
+      <c r="D320">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A321">
         <v>320</v>
       </c>
       <c r="B321" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="322" spans="1:2">
-      <c r="A322" t="n">
+      <c r="C321">
+        <f t="shared" si="5"/>
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="D321">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A322">
         <v>321</v>
       </c>
       <c r="B322" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="323" spans="1:2">
-      <c r="A323" t="n">
+      <c r="C322">
+        <f t="shared" ref="C322:C385" si="6">D322/1000</f>
+        <v>0.754</v>
+      </c>
+      <c r="D322">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A323">
         <v>322</v>
       </c>
       <c r="B323" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="324" spans="1:2">
-      <c r="A324" t="n">
+      <c r="C323">
+        <f t="shared" si="6"/>
+        <v>0.872</v>
+      </c>
+      <c r="D323">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A324">
         <v>323</v>
       </c>
       <c r="B324" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="325" spans="1:2">
-      <c r="A325" t="n">
+      <c r="C324">
+        <f t="shared" si="6"/>
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="D324">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A325">
         <v>324</v>
       </c>
       <c r="B325" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="326" spans="1:8">
-      <c r="A326" t="n">
+      <c r="C325">
+        <f t="shared" si="6"/>
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D325">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A326">
         <v>325</v>
       </c>
       <c r="B326" t="s">
         <v>352</v>
       </c>
+      <c r="C326">
+        <f t="shared" si="6"/>
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="D326">
+        <v>769</v>
+      </c>
       <c r="H326" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
-      <c r="A327" t="n">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A327">
         <v>326</v>
       </c>
       <c r="B327" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="328" spans="1:2">
-      <c r="A328" t="n">
+      <c r="C327">
+        <f t="shared" si="6"/>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="D327">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A328">
         <v>327</v>
       </c>
       <c r="B328" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="329" spans="1:2">
-      <c r="A329" t="n">
+      <c r="C328">
+        <f t="shared" si="6"/>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="D328">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A329">
         <v>328</v>
       </c>
       <c r="B329" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="330" spans="1:2">
-      <c r="A330" t="n">
+      <c r="C329">
+        <f t="shared" si="6"/>
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="D329">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A330">
         <v>329</v>
       </c>
       <c r="B330" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="331" spans="1:8">
-      <c r="A331" t="n">
+      <c r="C330">
+        <f t="shared" si="6"/>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D330">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A331">
         <v>330</v>
       </c>
       <c r="B331" t="s">
         <v>356</v>
       </c>
+      <c r="C331">
+        <f t="shared" si="6"/>
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="D331">
+        <v>974</v>
+      </c>
       <c r="H331" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
-      <c r="A332" t="n">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A332">
         <v>331</v>
       </c>
       <c r="B332" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="333" spans="1:2">
-      <c r="A333" t="n">
+      <c r="C332">
+        <f t="shared" si="6"/>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="D332">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A333">
         <v>332</v>
       </c>
       <c r="B333" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="334" spans="1:2">
-      <c r="A334" t="n">
+      <c r="C333">
+        <f t="shared" si="6"/>
+        <v>0.248</v>
+      </c>
+      <c r="D333">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A334">
         <v>333</v>
       </c>
       <c r="B334" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="335" spans="1:2">
-      <c r="A335" t="n">
+      <c r="C334">
+        <f t="shared" si="6"/>
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="D334">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A335">
         <v>334</v>
       </c>
       <c r="B335" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="336" spans="1:8">
-      <c r="A336" t="n">
+      <c r="C335">
+        <f t="shared" si="6"/>
+        <v>0.154</v>
+      </c>
+      <c r="D335">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A336">
         <v>335</v>
       </c>
       <c r="B336" t="s">
         <v>223</v>
       </c>
+      <c r="C336">
+        <f t="shared" si="6"/>
+        <v>0.748</v>
+      </c>
+      <c r="D336">
+        <v>748</v>
+      </c>
       <c r="H336" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
-      <c r="A337" t="n">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A337">
         <v>336</v>
       </c>
       <c r="B337" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="338" spans="1:2">
-      <c r="A338" t="n">
+      <c r="C337">
+        <f t="shared" si="6"/>
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="D337">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A338">
         <v>337</v>
       </c>
       <c r="B338" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="339" spans="1:2">
-      <c r="A339" t="n">
+      <c r="C338">
+        <f t="shared" si="6"/>
+        <v>1.036</v>
+      </c>
+      <c r="D338">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A339">
         <v>338</v>
       </c>
       <c r="B339" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="340" spans="1:2">
-      <c r="A340" t="n">
+      <c r="C339">
+        <f t="shared" si="6"/>
+        <v>1.131</v>
+      </c>
+      <c r="D339">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A340">
         <v>339</v>
       </c>
       <c r="B340" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="341" spans="1:2">
-      <c r="A341" t="n">
+      <c r="C340">
+        <f t="shared" si="6"/>
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="D340">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A341">
         <v>340</v>
       </c>
       <c r="B341" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="342" spans="1:2">
-      <c r="A342" t="n">
+      <c r="C341">
+        <f t="shared" si="6"/>
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="D341">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A342">
         <v>341</v>
       </c>
       <c r="B342" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="343" spans="1:2">
-      <c r="A343" t="n">
+      <c r="C342">
+        <f t="shared" si="6"/>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="D342">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A343">
         <v>342</v>
       </c>
       <c r="B343" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="344" spans="1:2">
-      <c r="A344" t="n">
+      <c r="C343">
+        <f t="shared" si="6"/>
+        <v>0.17</v>
+      </c>
+      <c r="D343">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A344">
         <v>343</v>
       </c>
       <c r="B344" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="345" spans="1:8">
-      <c r="A345" t="n">
+      <c r="C344">
+        <f t="shared" si="6"/>
+        <v>1.125</v>
+      </c>
+      <c r="D344">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A345">
         <v>344</v>
       </c>
       <c r="B345" t="s">
         <v>371</v>
       </c>
+      <c r="C345">
+        <f t="shared" si="6"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D345">
+        <v>825</v>
+      </c>
       <c r="H345" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
-      <c r="A346" t="n">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A346">
         <v>345</v>
       </c>
       <c r="B346" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="347" spans="1:2">
-      <c r="A347" t="n">
+      <c r="C346">
+        <f t="shared" si="6"/>
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="D346">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A347">
         <v>346</v>
       </c>
       <c r="B347" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="348" spans="1:2">
-      <c r="A348" t="n">
+      <c r="C347">
+        <f t="shared" si="6"/>
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="D347">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A348">
         <v>347</v>
       </c>
       <c r="B348" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="349" spans="1:2">
-      <c r="A349" t="n">
+      <c r="C348">
+        <f t="shared" si="6"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="D348">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A349">
         <v>348</v>
       </c>
       <c r="B349" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="350" spans="1:2">
-      <c r="A350" t="n">
+      <c r="C349">
+        <f t="shared" si="6"/>
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D349">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A350">
         <v>349</v>
       </c>
       <c r="B350" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="351" spans="1:2">
-      <c r="A351" t="n">
+      <c r="C350">
+        <f t="shared" si="6"/>
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="D350">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A351">
         <v>350</v>
       </c>
       <c r="B351" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="352" spans="1:2">
-      <c r="A352" t="n">
+      <c r="C351">
+        <f t="shared" si="6"/>
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="D351">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A352">
         <v>351</v>
       </c>
       <c r="B352" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="353" spans="1:2">
-      <c r="A353" t="n">
+      <c r="C352">
+        <f t="shared" si="6"/>
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="D352">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A353">
         <v>352</v>
       </c>
       <c r="B353" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="354" spans="1:8">
-      <c r="A354" t="n">
+      <c r="C353">
+        <f t="shared" si="6"/>
+        <v>0.998</v>
+      </c>
+      <c r="D353">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A354">
         <v>353</v>
       </c>
       <c r="B354" t="s">
         <v>381</v>
       </c>
+      <c r="C354">
+        <f t="shared" si="6"/>
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="D354">
+        <v>431</v>
+      </c>
       <c r="H354" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
-      <c r="A355" t="n">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A355">
         <v>354</v>
       </c>
       <c r="B355" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="356" spans="1:2">
-      <c r="A356" t="n">
+      <c r="C355">
+        <f t="shared" si="6"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="D355">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A356">
         <v>355</v>
       </c>
       <c r="B356" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="357" spans="1:2">
-      <c r="A357" t="n">
+      <c r="C356">
+        <f t="shared" si="6"/>
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="D356">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A357">
         <v>356</v>
       </c>
       <c r="B357" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="358" spans="1:2">
-      <c r="A358" t="n">
+      <c r="C357">
+        <f t="shared" si="6"/>
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="D357">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A358">
         <v>357</v>
       </c>
       <c r="B358" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="359" spans="1:2">
-      <c r="A359" t="n">
+      <c r="C358">
+        <f t="shared" si="6"/>
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D358">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A359">
         <v>358</v>
       </c>
       <c r="B359" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="360" spans="1:2">
-      <c r="A360" t="n">
+      <c r="C359">
+        <f t="shared" si="6"/>
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="D359">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A360">
         <v>359</v>
       </c>
       <c r="B360" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="361" spans="1:2">
-      <c r="A361" t="n">
+      <c r="C360">
+        <f t="shared" si="6"/>
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="D360">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A361">
         <v>360</v>
       </c>
       <c r="B361" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="362" spans="1:2">
-      <c r="A362" t="n">
+      <c r="C361">
+        <f t="shared" si="6"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D361">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A362">
         <v>361</v>
       </c>
       <c r="B362" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="363" spans="1:8">
-      <c r="A363" t="n">
+      <c r="C362">
+        <f t="shared" si="6"/>
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D362">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A363">
         <v>362</v>
       </c>
       <c r="B363" t="s">
         <v>390</v>
       </c>
+      <c r="C363">
+        <f t="shared" si="6"/>
+        <v>0.255</v>
+      </c>
+      <c r="D363">
+        <v>255</v>
+      </c>
       <c r="H363" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
-      <c r="A364" t="n">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A364">
         <v>363</v>
       </c>
       <c r="B364" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="365" spans="1:2">
-      <c r="A365" t="n">
+      <c r="C364">
+        <f t="shared" si="6"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D364">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A365">
         <v>364</v>
       </c>
       <c r="B365" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="366" spans="1:2">
-      <c r="A366" t="n">
+      <c r="C365">
+        <f t="shared" si="6"/>
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D365">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A366">
         <v>365</v>
       </c>
       <c r="B366" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="367" spans="1:8">
-      <c r="A367" t="n">
+      <c r="C366">
+        <f t="shared" si="6"/>
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="D366">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A367">
         <v>366</v>
       </c>
       <c r="B367" t="s">
         <v>13</v>
       </c>
+      <c r="C367">
+        <f t="shared" si="6"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D367">
+        <v>295</v>
+      </c>
       <c r="H367" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
-      <c r="A368" t="n">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A368">
         <v>367</v>
       </c>
       <c r="B368" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="369" spans="1:2">
-      <c r="A369" t="n">
+      <c r="C368">
+        <f t="shared" si="6"/>
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="D368">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A369">
         <v>368</v>
       </c>
       <c r="B369" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="370" spans="1:2">
-      <c r="A370" t="n">
+      <c r="C369">
+        <f t="shared" si="6"/>
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="D369">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A370">
         <v>369</v>
       </c>
       <c r="B370" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="371" spans="1:8">
-      <c r="A371" t="n">
+      <c r="C370">
+        <f t="shared" si="6"/>
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="D370">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A371">
         <v>370</v>
       </c>
       <c r="B371" t="s">
         <v>399</v>
       </c>
+      <c r="C371">
+        <f t="shared" si="6"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D371">
+        <v>1110</v>
+      </c>
       <c r="H371" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
-      <c r="A372" t="n">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A372">
         <v>371</v>
       </c>
       <c r="B372" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="373" spans="1:2">
-      <c r="A373" t="n">
+      <c r="C372">
+        <f t="shared" si="6"/>
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="D372">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A373">
         <v>372</v>
       </c>
       <c r="B373" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="374" spans="1:8">
-      <c r="A374" t="n">
+      <c r="C373">
+        <f t="shared" si="6"/>
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="D373">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A374">
         <v>373</v>
       </c>
       <c r="B374" t="s">
         <v>403</v>
       </c>
+      <c r="C374">
+        <f t="shared" si="6"/>
+        <v>0.33</v>
+      </c>
+      <c r="D374">
+        <v>330</v>
+      </c>
       <c r="H374" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
-      <c r="A375" t="n">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A375">
         <v>374</v>
       </c>
       <c r="B375" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="376" spans="1:2">
-      <c r="A376" t="n">
+      <c r="C375">
+        <f t="shared" si="6"/>
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="D375">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A376">
         <v>375</v>
       </c>
       <c r="B376" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="377" spans="1:2">
-      <c r="A377" t="n">
+      <c r="C376">
+        <f t="shared" si="6"/>
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="D376">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A377">
         <v>376</v>
       </c>
       <c r="B377" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="378" spans="1:2">
-      <c r="A378" t="n">
+      <c r="C377">
+        <f t="shared" si="6"/>
+        <v>0.156</v>
+      </c>
+      <c r="D377">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A378">
         <v>377</v>
       </c>
       <c r="B378" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="379" spans="1:2">
-      <c r="A379" t="n">
+      <c r="C378">
+        <f t="shared" si="6"/>
+        <v>1.113</v>
+      </c>
+      <c r="D378">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A379">
         <v>378</v>
       </c>
       <c r="B379" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="380" spans="1:8">
-      <c r="A380" t="n">
+      <c r="C379">
+        <f t="shared" si="6"/>
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="D379">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A380">
         <v>379</v>
       </c>
       <c r="B380" t="s">
         <v>410</v>
       </c>
+      <c r="C380">
+        <f t="shared" si="6"/>
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="D380">
+        <v>686</v>
+      </c>
       <c r="H380" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
-      <c r="A381" t="n">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A381">
         <v>380</v>
       </c>
       <c r="B381" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="382" spans="1:2">
-      <c r="A382" t="n">
+      <c r="C381">
+        <f t="shared" si="6"/>
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="D381">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A382">
         <v>381</v>
       </c>
       <c r="B382" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="383" spans="1:2">
-      <c r="A383" t="n">
+      <c r="C382">
+        <f t="shared" si="6"/>
+        <v>0.23</v>
+      </c>
+      <c r="D382">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A383">
         <v>382</v>
       </c>
       <c r="B383" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="384" spans="1:8">
-      <c r="A384" t="n">
+      <c r="C383">
+        <f t="shared" si="6"/>
+        <v>0.186</v>
+      </c>
+      <c r="D383">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A384">
         <v>383</v>
       </c>
       <c r="B384" t="s">
         <v>415</v>
       </c>
+      <c r="C384">
+        <f t="shared" si="6"/>
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="D384">
+        <v>457</v>
+      </c>
       <c r="H384" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
-      <c r="A385" t="n">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A385">
         <v>384</v>
       </c>
       <c r="B385" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="386" spans="1:2">
-      <c r="A386" t="n">
+      <c r="C385">
+        <f t="shared" si="6"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D385">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A386">
         <v>385</v>
       </c>
       <c r="B386" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="387" spans="1:2">
-      <c r="A387" t="n">
+      <c r="C386">
+        <f t="shared" ref="C386:C402" si="7">D386/1000</f>
+        <v>1.016</v>
+      </c>
+      <c r="D386">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A387">
         <v>386</v>
       </c>
       <c r="B387" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="388" spans="1:8">
-      <c r="A388" t="n">
+      <c r="C387">
+        <f t="shared" si="7"/>
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="D387">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A388">
         <v>387</v>
       </c>
       <c r="B388" t="s">
         <v>420</v>
       </c>
+      <c r="C388">
+        <f t="shared" si="7"/>
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="D388">
+        <v>801</v>
+      </c>
       <c r="H388" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
-      <c r="A389" t="n">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A389">
         <v>388</v>
       </c>
       <c r="B389" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="390" spans="1:2">
-      <c r="A390" t="n">
+      <c r="C389">
+        <f t="shared" si="7"/>
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="D389">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A390">
         <v>389</v>
       </c>
       <c r="B390" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="391" spans="1:8">
-      <c r="A391" t="n">
+      <c r="C390">
+        <f t="shared" si="7"/>
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="D390">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A391">
         <v>390</v>
       </c>
       <c r="B391" t="s">
         <v>424</v>
       </c>
+      <c r="C391">
+        <f t="shared" si="7"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="D391">
+        <v>24</v>
+      </c>
       <c r="H391" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="392" spans="1:2">
-      <c r="A392" t="n">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A392">
         <v>391</v>
       </c>
       <c r="B392" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="393" spans="1:2">
-      <c r="A393" t="n">
+      <c r="C392">
+        <f t="shared" si="7"/>
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="D392">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A393">
         <v>392</v>
       </c>
       <c r="B393" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="394" spans="1:2">
-      <c r="A394" t="n">
+      <c r="C393">
+        <f t="shared" si="7"/>
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="D393">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A394">
         <v>393</v>
       </c>
       <c r="B394" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="395" spans="1:8">
-      <c r="A395" t="n">
+      <c r="C394">
+        <f t="shared" si="7"/>
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="D394">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A395">
         <v>394</v>
       </c>
       <c r="B395" t="s">
         <v>429</v>
       </c>
+      <c r="C395">
+        <f t="shared" si="7"/>
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="D395">
+        <v>829</v>
+      </c>
       <c r="H395" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="396" spans="1:2">
-      <c r="A396" t="n">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A396">
         <v>395</v>
       </c>
       <c r="B396" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="397" spans="1:2">
-      <c r="A397" t="n">
+      <c r="C396">
+        <f t="shared" si="7"/>
+        <v>0.875</v>
+      </c>
+      <c r="D396">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A397">
         <v>396</v>
       </c>
       <c r="B397" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="398" spans="1:2">
-      <c r="A398" t="n">
+      <c r="C397">
+        <f t="shared" si="7"/>
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="D397">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A398">
         <v>397</v>
       </c>
       <c r="B398" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="399" spans="1:2">
-      <c r="A399" t="n">
+      <c r="C398">
+        <f t="shared" si="7"/>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="D398">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A399">
         <v>398</v>
       </c>
       <c r="B399" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="400" spans="1:2">
-      <c r="A400" t="n">
+      <c r="C399">
+        <f t="shared" si="7"/>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="D399">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A400">
         <v>399</v>
       </c>
       <c r="B400" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="401" spans="1:2">
-      <c r="A401" t="n">
+      <c r="C400">
+        <f t="shared" si="7"/>
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="D400">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A401">
         <v>400</v>
       </c>
       <c r="B401" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="402" spans="1:2">
-      <c r="A402" t="n">
+      <c r="C401">
+        <f t="shared" si="7"/>
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="D401">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A402">
         <v>401</v>
       </c>
       <c r="B402" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="403" spans="2:8">
+      <c r="C402">
+        <f t="shared" si="7"/>
+        <v>0.187</v>
+      </c>
+      <c r="D402">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
         <v>438</v>
       </c>
@@ -5922,17 +8115,17 @@
         <v>439</v>
       </c>
     </row>
-    <row r="404" spans="2:2">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B404" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="405" spans="2:2">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B405" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="406" spans="2:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B406" t="s">
         <v>442</v>
       </c>
@@ -5940,27 +8133,27 @@
         <v>443</v>
       </c>
     </row>
-    <row r="407" spans="2:2">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="408" spans="2:2">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B408" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="409" spans="2:2">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B409" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="410" spans="2:2">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="411" spans="2:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B411" t="s">
         <v>447</v>
       </c>
@@ -5968,386 +8161,380 @@
         <v>448</v>
       </c>
     </row>
-    <row r="412" spans="2:2">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B412" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="413" spans="8:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B413" t="s">
+        <v>323</v>
+      </c>
       <c r="H413" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="414" spans="8:8">
-      <c r="H414" t="s">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B414" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H415" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="415" spans="8:8">
-      <c r="H415" t="s">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B416" t="s">
+        <v>26</v>
+      </c>
+      <c r="H416" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="416" spans="8:8">
-      <c r="H416" t="s">
+    <row r="418" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H418" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="417" spans="8:8">
-      <c r="H417" t="s">
+    <row r="419" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H419" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="418" spans="8:8">
-      <c r="H418" t="s">
+    <row r="420" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H420" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="419" spans="8:8">
-      <c r="H419" t="s">
+    <row r="421" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H421" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="420" spans="8:8">
-      <c r="H420" t="s">
+    <row r="422" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H422" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="421" spans="8:8">
-      <c r="H421" t="s">
+    <row r="423" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H423" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="422" spans="8:8">
-      <c r="H422" t="s">
+    <row r="424" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H424" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="423" spans="8:8">
-      <c r="H423" t="s">
+    <row r="425" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H425" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="424" spans="8:8">
-      <c r="H424" t="s">
+    <row r="426" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H426" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="425" spans="8:8">
-      <c r="H425" t="s">
+    <row r="427" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H427" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="426" spans="8:8">
-      <c r="H426" t="s">
+    <row r="428" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H428" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="427" spans="8:8">
-      <c r="H427" t="s">
+    <row r="429" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H429" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="428" spans="8:8">
-      <c r="H428" t="s">
+    <row r="430" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H430" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="429" spans="8:8">
-      <c r="H429" t="s">
+    <row r="431" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H431" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="430" spans="8:8">
-      <c r="H430" t="s">
+    <row r="432" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H432" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="431" spans="8:8">
-      <c r="H431" t="s">
+    <row r="433" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H433" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="432" spans="8:8">
-      <c r="H432" t="s">
+    <row r="434" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H434" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="433" spans="8:8">
-      <c r="H433" t="s">
+    <row r="435" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H435" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="434" spans="8:8">
-      <c r="H434" t="s">
+    <row r="436" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H436" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="435" spans="8:8">
-      <c r="H435" t="s">
+    <row r="437" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H437" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="436" spans="8:8">
-      <c r="H436" t="s">
+    <row r="438" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H438" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="437" spans="8:8">
-      <c r="H437" t="s">
+    <row r="439" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H439" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="438" spans="8:8">
-      <c r="H438" t="s">
+    <row r="440" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H440" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="439" spans="8:8">
-      <c r="H439" t="s">
+    <row r="441" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H441" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="440" spans="8:8">
-      <c r="H440" t="s">
+    <row r="442" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H442" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="441" spans="8:8">
-      <c r="H441" t="s">
+    <row r="443" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H443" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="442" spans="8:8">
-      <c r="H442" t="s">
+    <row r="444" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H444" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="443" spans="8:8">
-      <c r="H443" t="s">
+    <row r="445" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H445" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="444" spans="8:8">
-      <c r="H444" t="s">
+    <row r="446" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H446" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="445" spans="8:8">
-      <c r="H445" t="s">
+    <row r="447" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H447" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="446" spans="8:8">
-      <c r="H446" t="s">
+    <row r="448" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H448" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="447" spans="8:8">
-      <c r="H447" t="s">
+    <row r="449" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H449" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="448" spans="8:8">
-      <c r="H448" t="s">
+    <row r="450" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H450" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="449" spans="8:8">
-      <c r="H449" t="s">
+    <row r="451" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H451" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="450" spans="8:8">
-      <c r="H450" t="s">
+    <row r="452" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H452" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="451" spans="8:8">
-      <c r="H451" t="s">
+    <row r="453" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H453" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="452" spans="8:8">
-      <c r="H452" t="s">
+    <row r="454" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H454" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="453" spans="8:8">
-      <c r="H453" t="s">
+    <row r="455" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H455" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="454" spans="8:8">
-      <c r="H454" t="s">
+    <row r="456" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H456" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="455" spans="8:8">
-      <c r="H455" t="s">
+    <row r="457" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H457" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="456" spans="8:8">
-      <c r="H456" t="s">
+    <row r="458" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H458" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="457" spans="8:8">
-      <c r="H457" t="s">
+    <row r="459" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H459" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="458" spans="8:8">
-      <c r="H458" t="s">
+    <row r="460" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H460" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="459" spans="8:8">
-      <c r="H459" t="s">
+    <row r="461" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H461" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="460" spans="8:8">
-      <c r="H460" t="s">
+    <row r="462" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H462" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="461" spans="8:8">
-      <c r="H461" t="s">
+    <row r="463" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H463" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="462" spans="8:8">
-      <c r="H462" t="s">
+    <row r="464" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H464" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="463" spans="8:8">
-      <c r="H463" t="s">
+    <row r="465" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H465" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="464" spans="8:8">
-      <c r="H464" t="s">
+    <row r="466" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H466" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="465" spans="8:8">
-      <c r="H465" t="s">
+    <row r="467" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H467" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="466" spans="8:8">
-      <c r="H466" t="s">
+    <row r="468" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H468" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="467" spans="8:8">
-      <c r="H467" t="s">
+    <row r="469" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H469" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="468" spans="8:8">
-      <c r="H468" t="s">
+    <row r="470" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H470" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="469" spans="8:8">
-      <c r="H469" t="s">
+    <row r="471" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H471" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="470" spans="8:8">
-      <c r="H470" t="s">
+    <row r="472" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H472" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="471" spans="8:8">
-      <c r="H471" t="s">
+    <row r="473" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H473" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="472" spans="8:8">
-      <c r="H472" t="s">
+    <row r="474" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H474" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="473" spans="8:8">
-      <c r="H473" t="s">
+    <row r="475" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H475" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="474" spans="8:8">
-      <c r="H474" t="s">
+    <row r="476" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H476" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="475" spans="8:8">
-      <c r="H475" t="s">
+    <row r="477" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H477" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="476" spans="8:8">
-      <c r="H476" t="s">
+    <row r="478" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H478" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="477" spans="8:8">
-      <c r="H477" t="s">
+    <row r="479" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H479" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="478" spans="8:8">
-      <c r="H478" t="s">
+    <row r="480" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H480" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="479" spans="8:8">
-      <c r="H479" t="s">
+    <row r="481" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H481" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="480" spans="8:8">
-      <c r="H480" t="s">
+    <row r="482" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H482" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="481" spans="8:8">
-      <c r="H481" t="s">
+    <row r="483" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H483" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="482" spans="8:8">
-      <c r="H482" t="s">
+    <row r="484" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H484" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="483" spans="8:8">
-      <c r="H483" t="s">
+    <row r="485" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H485" t="s">
         <v>519</v>
       </c>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1719129648" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1719129648" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1719129648" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1719129648" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1719129648" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1719129648" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
